--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baruchmailcuny-my.sharepoint.com/personal/shivani_dedhia_baruchmail_cuny_edu/Documents/Spring 2021/Database Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germansalgado/Documents/GitHub/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7249BF-6B3B-4F22-A6D9-C2F965CC7A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA9C3CD-BFC2-F040-9B05-7B838FB770BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="277" windowWidth="21795" windowHeight="12195" firstSheet="9" activeTab="14" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="-35360" yWindow="-3780" windowWidth="27320" windowHeight="15740" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Loan" sheetId="14" r:id="rId14"/>
     <sheet name="Book_Author" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Date_Loan_Due </t>
+  </si>
+  <si>
+    <t>german</t>
   </si>
 </sst>
 </file>
@@ -517,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -539,6 +542,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,7 +560,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -584,14 +592,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -618,12 +626,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -644,7 +652,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -667,12 +675,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -689,16 +697,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -719,12 +727,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -751,13 +759,13 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -793,7 +801,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -822,7 +830,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -851,10 +859,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -881,7 +889,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -904,7 +912,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -936,7 +944,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1183,6 +1191,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1191,23 +1208,40 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="612d4b61-6a66-4ee1-9415-3298b2a7c61c"/>
+    <ds:schemaRef ds:uri="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents &amp; Important Staffs\Nafis\Github Projects\LibraryDatabaseSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\GitHub\LibraryDatabaseSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AF251-7B72-4316-96D1-A07867EADE19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C11CBE-326C-42A1-8038-0A5C627291E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5910" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="5145" yWindow="60" windowWidth="18855" windowHeight="12810" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -140,7 +140,76 @@
     <t>Date_Loan_Due </t>
   </si>
   <si>
-    <t>german</t>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Librarian</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>Pamukuntla</t>
+  </si>
+  <si>
+    <t>IT Help Desk</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>Nafis</t>
+  </si>
+  <si>
+    <t>Chowdhury</t>
+  </si>
+  <si>
+    <t>Shivani</t>
+  </si>
+  <si>
+    <t>Dedhia</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Abraham </t>
+  </si>
+  <si>
+    <t>Lincoln </t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Lucille</t>
+  </si>
+  <si>
+    <t>Ball</t>
   </si>
 </sst>
 </file>
@@ -511,13 +580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -534,8 +607,143 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>6789</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>6790</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6791</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6792</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6793</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6795</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6796</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>6797</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6798</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +759,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -583,11 +791,11 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -617,7 +825,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
@@ -643,7 +851,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -666,9 +874,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -692,9 +900,9 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -718,9 +926,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -746,13 +954,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,7 +1005,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -826,7 +1034,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -855,10 +1063,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -885,7 +1093,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -908,7 +1116,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -940,7 +1148,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -959,6 +1167,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1186,15 +1403,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1205,6 +1413,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1224,14 +1440,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germansalgado/Documents/GitHub/LibraryDatabaseSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents &amp; Important Staffs\Nafis\Github Projects\LibraryDatabaseSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA9C3CD-BFC2-F040-9B05-7B838FB770BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AF251-7B72-4316-96D1-A07867EADE19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35360" yWindow="-3780" windowWidth="27320" windowHeight="15740" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="19090" yWindow="-5910" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -29,19 +29,10 @@
     <sheet name="Loan" sheetId="14" r:id="rId14"/>
     <sheet name="Book_Author" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -522,11 +513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -560,7 +551,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -592,10 +583,10 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,12 +617,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -652,7 +643,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -675,12 +666,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -701,12 +692,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -727,12 +718,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -753,13 +744,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -788,6 +779,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -801,7 +797,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -830,7 +826,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -859,10 +855,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -889,7 +885,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -912,7 +908,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -944,7 +940,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\GitHub\LibraryDatabaseSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C11CBE-326C-42A1-8038-0A5C627291E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E9772-DE6D-D447-8891-5A54ADD1865C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="60" windowWidth="18855" windowHeight="12810" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="5140" yWindow="460" windowWidth="32740" windowHeight="18020" activeTab="1" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -210,13 +210,157 @@
   </si>
   <si>
     <t>Ball</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>9780486821955 0486821951</t>
+  </si>
+  <si>
+    <t>0679420738 9780679420736</t>
+  </si>
+  <si>
+    <t>A Tale of Two Cities</t>
+  </si>
+  <si>
+    <t>Subgenre</t>
+  </si>
+  <si>
+    <t>A Christmas Carol</t>
+  </si>
+  <si>
+    <t>9780061650994 0061650994</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/don-quixote/oclc/1020679308</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Tendulkar</t>
+  </si>
+  <si>
+    <t>stendulkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>virat_kohli@hotmail.com</t>
+  </si>
+  <si>
+    <t>Halpert</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>jimmy.halpert@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Beesly</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>m_scott@hotmail.com</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>p.beesly@gmail.com</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Schrute</t>
+  </si>
+  <si>
+    <t>dwight.beets@gmail.com</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>andy_bernard@cornell.edu</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>angela.sprinkles@gmail.com</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>kelly.kapoor@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +380,20 @@
       <name val="WordVisi_MSFontService"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,10 +412,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,8 +425,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,167 +758,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>6789</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="8">
+        <v>106789</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>6790</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="8">
+        <v>116790</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>6791</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="8">
+        <v>126791</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>6792</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="8">
+        <v>136792</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6793</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="8">
+        <v>146793</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6794</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="8">
+        <v>156794</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6795</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="8">
+        <v>166795</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>6796</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="8">
+        <v>176796</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>6797</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="8">
+        <v>186797</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>6798</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="8">
+        <v>196798</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -753,15 +931,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D05F-D553-4F5B-894F-214976EA1880}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -774,8 +959,103 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="E2" s="4">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="4">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="4">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="4">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="4">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="4">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="4">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="4">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="4">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="4">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="4">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="4">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="4">
+        <v>5683</v>
       </c>
     </row>
   </sheetData>
@@ -785,21 +1065,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
@@ -810,6 +1091,101 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4">
+        <v>5683</v>
       </c>
     </row>
   </sheetData>
@@ -819,23 +1195,119 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4">
+        <v>5683</v>
       </c>
     </row>
   </sheetData>
@@ -847,11 +1319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -874,12 +1346,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -896,16 +1368,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -920,47 +1392,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8"/>
+    <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5474</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>1235</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1244</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>1236</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3948</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>1237</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2039</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>1238</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9454</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>1239</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3456</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>1240</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5675</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>1241</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9385</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>1242</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>1243</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5970</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>1244</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3948</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>1245</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9087</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>1246</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2345</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>1247</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4567</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <v>1248</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5678</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>1249</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7893</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>1250</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3424</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>1251</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5753</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>1252</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5683</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -985,11 +1735,6 @@
       </c>
       <c r="G1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1750,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1034,7 +1779,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1063,10 +1808,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1087,13 +1832,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1103,20 +1852,109 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>967594</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>967595</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>967596</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>967597</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>967598</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>967599</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>967600</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>967601</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>967602</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7ACE48B5-1F64-4347-9AFA-15FA74581BA8}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C632F633-5748-1B44-BF82-C67DE4FAE834}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{602A69C6-6B04-C640-BCEF-40304A01AFAE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C1ADFBAF-E21D-F249-AB5A-9AA26EE4996A}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{36F171F8-E59D-114B-B4A9-9321C8454680}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B3DE4CE8-67F4-284F-A2E1-193894B4F062}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{F74D0E8B-96CD-E647-A51A-AEE8E9766F91}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{043315D8-0301-8042-B3E3-52014BD5A615}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{4AB611A6-F591-5A41-9AFE-62B317B70356}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1135,30 +1973,294 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>5166555901</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>5163213456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>5164376840</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>5160989098</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>5167483948</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>5164382938</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8">
+        <v>5168399595</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>5168575744</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>5168493904</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1975B932-457A-0043-97CD-84460F2B275A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{0A3CBA91-0CAA-8C48-B5B3-59B6AC96E885}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{18B73868-7D7C-5043-AA13-36CF8A4DE6B8}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{415032C9-D6F8-B945-8A14-8C7AEA30BE37}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{4DAED115-828B-184E-948D-5D92E1F559C8}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{310BC187-B934-D74F-865B-BE5AC6504D4E}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{1D9F85A9-C114-F141-B3B8-F30234CC5B4B}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{7E115A93-9C26-AC42-B4D5-D39434851F8B}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{BA488B69-1300-FF4F-A190-01E94390E4CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="4">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="4">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="4">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="4">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="4">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="4">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="4">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="4">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="4">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="4">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="4">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="4">
+        <v>5683</v>
       </c>
     </row>
   </sheetData>
@@ -1167,15 +2269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1403,6 +2496,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1413,14 +2515,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1440,6 +2534,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E9772-DE6D-D447-8891-5A54ADD1865C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4C7F7-8C51-F245-9A2A-B847CB17138B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="460" windowWidth="32740" windowHeight="18020" activeTab="1" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="2" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -354,6 +354,39 @@
   </si>
   <si>
     <t>kelly.kapoor@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/christmas-carol/oclc/270129693</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/tale-of-two-cities/oclc/22267016</t>
+  </si>
+  <si>
+    <t>Crime and Punishment</t>
+  </si>
+  <si>
+    <t>9780679601005 0679601007</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/crime-and-punishment/oclc/373996</t>
+  </si>
+  <si>
+    <t>Brave New World</t>
+  </si>
+  <si>
+    <t>Science fiction</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/brave-new-world/oclc/74490211</t>
+  </si>
+  <si>
+    <t>0060850523 9780060850524</t>
+  </si>
+  <si>
+    <t>Print</t>
   </si>
 </sst>
 </file>
@@ -372,7 +405,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1394,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1404,7 +1437,8 @@
     <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="8"/>
     <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1487,6 +1521,9 @@
       <c r="F4" t="s">
         <v>69</v>
       </c>
+      <c r="I4" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
@@ -1510,6 +1547,9 @@
       <c r="H5" t="s">
         <v>74</v>
       </c>
+      <c r="I5" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
@@ -1521,7 +1561,21 @@
       <c r="C6" s="4">
         <v>9454</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -1533,7 +1587,9 @@
       <c r="C7" s="4">
         <v>3456</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
@@ -1545,7 +1601,9 @@
       <c r="C8" s="4">
         <v>5675</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
@@ -1557,7 +1615,21 @@
       <c r="C9" s="4">
         <v>9385</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
@@ -1569,7 +1641,9 @@
       <c r="C10" s="4">
         <v>1234</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
@@ -1695,6 +1769,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{FA505670-A0ED-C14C-8BCC-6E4FC307140F}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{202B27CC-2516-DB43-9B96-E7B5A8D2BBF2}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{74E3E727-210B-4D46-9864-751DE94EB309}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{1EFFFCB4-6140-624B-B7F7-99CA39C1B7B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1702,15 +1780,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1735,6 +1815,17 @@
       </c>
       <c r="G1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2497,21 +2588,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2535,14 +2626,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2550,4 +2633,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4C7F7-8C51-F245-9A2A-B847CB17138B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19C8CB-3CEA-D546-A975-8C446A0BF151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="2" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Author" sheetId="4" r:id="rId5"/>
     <sheet name="Publisher" sheetId="5" r:id="rId6"/>
     <sheet name="Member" sheetId="6" r:id="rId7"/>
-    <sheet name="Email" sheetId="11" r:id="rId8"/>
+    <sheet name="Member_Info" sheetId="11" r:id="rId8"/>
     <sheet name="Book_Return" sheetId="7" r:id="rId9"/>
     <sheet name="Book_Overdue" sheetId="8" r:id="rId10"/>
     <sheet name="Book_Loan" sheetId="9" r:id="rId11"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="251">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Assistant</t>
   </si>
   <si>
-    <t>Bernie</t>
-  </si>
-  <si>
     <t>Sanders</t>
   </si>
   <si>
@@ -377,16 +374,424 @@
     <t>Brave New World</t>
   </si>
   <si>
-    <t>Science fiction</t>
-  </si>
-  <si>
     <t>https://www.worldcat.org/title/brave-new-world/oclc/74490211</t>
   </si>
   <si>
     <t>0060850523 9780060850524</t>
   </si>
   <si>
-    <t>Print</t>
+    <t>New York Dover Publications</t>
+  </si>
+  <si>
+    <t>Random House</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>HarperCollins Children's Books</t>
+  </si>
+  <si>
+    <t>Modern Library</t>
+  </si>
+  <si>
+    <t>Harper Perennial Modern Classics</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>9780735822276 0735822271</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/heidi/oclc/774130890?referer=di&amp;ht=edition</t>
+  </si>
+  <si>
+    <t>Science Fiction</t>
+  </si>
+  <si>
+    <t>Les Misérables</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/miserables/oclc/3991366</t>
+  </si>
+  <si>
+    <t>0679600124 9780679600121</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>0397001517 9780397001514</t>
+  </si>
+  <si>
+    <t>The Wizard of Oz</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/to-kill-a-mockingbird/oclc/276976</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/wizard-of-oz/oclc/8280289</t>
+  </si>
+  <si>
+    <t>0030616611 9780030616617</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>The Great Gatsby</t>
+  </si>
+  <si>
+    <t>9780743273565 0743273567</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/great-gatsby/oclc/57215622</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/ulysses/oclc/25831869</t>
+  </si>
+  <si>
+    <t>0679600116 9780679600114</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>The Grapes of Wrath</t>
+  </si>
+  <si>
+    <t>0143039431 9780143039433</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>A Brief History of Time</t>
+  </si>
+  <si>
+    <t>Non-Fiction</t>
+  </si>
+  <si>
+    <t>0553176986 9780553176988</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/products/isbn/9780553176988</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>https://www.worldcat.org/title/grapes-of-wrath/oclc/62593827</t>
+  </si>
+  <si>
+    <t>Anne Frank: The Diary of a Young Girl</t>
+  </si>
+  <si>
+    <t>0553296981 9780553296983</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/products/isbn/9780553296983</t>
+  </si>
+  <si>
+    <t>The Year of Magical Thinking</t>
+  </si>
+  <si>
+    <t>Memoir</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/products/isbn/9780007216857</t>
+  </si>
+  <si>
+    <t>0007216858 9780007216857</t>
+  </si>
+  <si>
+    <t>Silent Spring</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/products/isbn/9780618249060</t>
+  </si>
+  <si>
+    <t>0618249060 9780618249060</t>
+  </si>
+  <si>
+    <t>Wild Swans: Three Daughters of China</t>
+  </si>
+  <si>
+    <t>0743246985 9780743246989</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/products/isbn/9780743246989</t>
+  </si>
+  <si>
+    <t>Contact Publishing</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Bantam Books</t>
+  </si>
+  <si>
+    <t>North-South Books</t>
+  </si>
+  <si>
+    <t>Hardcover</t>
+  </si>
+  <si>
+    <t>Softcover</t>
+  </si>
+  <si>
+    <t>A. Lacroix, Verboeckhoven &amp; Cie.</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>J. B. Lippincott &amp; Co</t>
+  </si>
+  <si>
+    <t>George M. Hill Company</t>
+  </si>
+  <si>
+    <t>Charles Scribner's Sons</t>
+  </si>
+  <si>
+    <t>Penguin Books</t>
+  </si>
+  <si>
+    <t>Harper Perennial</t>
+  </si>
+  <si>
+    <t>Houghton Mifflin Company</t>
+  </si>
+  <si>
+    <t>Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Tami</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Carman</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Culhane</t>
+  </si>
+  <si>
+    <t>Tori</t>
+  </si>
+  <si>
+    <t>Moreer</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>c.dean123@gmail.com</t>
+  </si>
+  <si>
+    <t>cyoung@yahoo.com</t>
+  </si>
+  <si>
+    <t>tamiball@gmail.com</t>
+  </si>
+  <si>
+    <t>rice.pamela@yahoo.com</t>
+  </si>
+  <si>
+    <t>wendyr@gmail.com</t>
+  </si>
+  <si>
+    <t>carmantom@gmail.com</t>
+  </si>
+  <si>
+    <t>jimmyculhane@yahoo.com</t>
+  </si>
+  <si>
+    <t>torimo@hotmail.com</t>
+  </si>
+  <si>
+    <t>johnronald@gmail.com</t>
+  </si>
+  <si>
+    <t>doemarlin@gmail.com</t>
+  </si>
+  <si>
+    <t>Autobiography</t>
+  </si>
+  <si>
+    <t>Southern Gothic</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Hawking</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dickens</t>
+  </si>
+  <si>
+    <t>Fyodor</t>
+  </si>
+  <si>
+    <t>Dostoevsky</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Aldous</t>
+  </si>
+  <si>
+    <t>Huxley</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Spyri</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harper </t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Baum</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>Steinbeck</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Didion</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -428,12 +833,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -449,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,6 +885,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="200" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -818,8 +1244,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
-        <v>106789</v>
+      <c r="A2" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>33</v>
@@ -906,13 +1332,13 @@
         <v>166795</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -920,10 +1346,10 @@
         <v>176796</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>47</v>
@@ -934,10 +1360,10 @@
         <v>186797</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>47</v>
@@ -948,10 +1374,10 @@
         <v>196798</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>47</v>
@@ -1425,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1437,9 +1863,10 @@
     <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="8"/>
     <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -1455,324 +1882,608 @@
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32">
       <c r="A2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5474</v>
+        <v>1232</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3879</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>157</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
-        <v>1235</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1244</v>
+        <v>1233</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
+        <v>152</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4">
-        <v>3948</v>
+        <v>5474</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="4">
-        <v>2039</v>
+        <v>1244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>105</v>
+        <v>66</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4">
-        <v>9454</v>
+        <v>3948</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>110</v>
+      <c r="H6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
-        <v>3456</v>
+        <v>2039</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>71</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
-        <v>5675</v>
+        <v>9454</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>108</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
-        <v>9385</v>
+        <v>3456</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
-        <v>1234</v>
+        <v>5675</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4">
-        <v>5970</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>9385</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4">
-        <v>3948</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>1234</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4">
-        <v>9087</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>5970</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
-        <v>2345</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>3948</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="4">
-        <v>4567</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>9087</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
+        <v>1246</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2345</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>1247</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4567</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
         <v>1248</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4">
         <v>5678</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="D18" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
         <v>1249</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4">
         <v>7893</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="D19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
         <v>1250</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4">
         <v>3424</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="D20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
         <v>1251</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4">
         <v>5753</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="D21" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
         <v>1252</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8989</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>1253</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3874</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>1254</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9881</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32">
+      <c r="A25" s="4">
+        <v>1255</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6878</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>1256</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2344</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>1257</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="4">
         <v>5683</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{FA505670-A0ED-C14C-8BCC-6E4FC307140F}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{202B27CC-2516-DB43-9B96-E7B5A8D2BBF2}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{74E3E727-210B-4D46-9864-751DE94EB309}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{1EFFFCB4-6140-624B-B7F7-99CA39C1B7B7}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{FA505670-A0ED-C14C-8BCC-6E4FC307140F}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{202B27CC-2516-DB43-9B96-E7B5A8D2BBF2}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{74E3E727-210B-4D46-9864-751DE94EB309}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{1EFFFCB4-6140-624B-B7F7-99CA39C1B7B7}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{777D7478-444F-1E46-91F7-C953E309FE23}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{C098ADFF-45AD-F341-BAD9-E87E1BAE666A}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{5F330CEA-DB4A-684A-A592-14E2471BD816}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{21D0ED9D-94F6-2C40-B12A-81DD2201D677}"/>
+    <hyperlink ref="I20" r:id="rId10" xr:uid="{C9214E57-D2D5-2B44-BCC6-D5A4B4597A2B}"/>
+    <hyperlink ref="I27" r:id="rId11" xr:uid="{45F60E1F-A021-5A4D-8EA7-4A602D1C76FB}"/>
+    <hyperlink ref="I3" r:id="rId12" xr:uid="{4403F651-5D32-2141-BC81-DC7765CA72D6}"/>
+    <hyperlink ref="I22" r:id="rId13" xr:uid="{1593C447-75A3-6D45-B2C7-4B8E915178ED}"/>
+    <hyperlink ref="I2" r:id="rId14" xr:uid="{61BC878E-F3E3-4C4A-9BB2-B52D91FDBBAA}"/>
+    <hyperlink ref="I23" r:id="rId15" xr:uid="{27BE8DB1-B5CA-E448-950C-EEAF2A05058D}"/>
+    <hyperlink ref="I24" r:id="rId16" xr:uid="{A7540261-2EB8-5844-B7BF-92E1EB26DA9A}"/>
+    <hyperlink ref="I25" r:id="rId17" xr:uid="{2F948A7F-D1C4-BF45-8BD7-85B3C6A98F3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1780,17 +2491,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1817,15 +2528,395 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2">
+        <v>1947</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2">
+        <v>7564</v>
+      </c>
+      <c r="G2">
+        <v>9908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>16.97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3">
+        <v>1988</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>3847</v>
+      </c>
+      <c r="G3">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>9.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4">
+        <v>1605</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>7854</v>
+      </c>
+      <c r="G4">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
+      <c r="B5">
+        <v>11.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5">
+        <v>1993</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6711</v>
+      </c>
+      <c r="G5">
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>11.17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6">
+        <v>2009</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6711</v>
+      </c>
+      <c r="G6">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>3.85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7">
+        <v>1950</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7">
+        <v>6856</v>
+      </c>
+      <c r="G7">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>11.55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8">
+        <v>1932</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>7001</v>
+      </c>
+      <c r="G8">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9">
+        <v>2010</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>7145</v>
+      </c>
+      <c r="G9">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>22.95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>1862</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6711</v>
+      </c>
+      <c r="G10">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11">
+        <v>20.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>1960</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>7290</v>
+      </c>
+      <c r="G11">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>20.11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>1900</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12">
+        <v>7435</v>
+      </c>
+      <c r="G12">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13">
+        <v>1953</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13">
+        <v>7854</v>
+      </c>
+      <c r="G13">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14">
+        <v>12.29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14">
+        <v>2006</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7580</v>
+      </c>
+      <c r="G14">
+        <v>9726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15">
+        <v>2006</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <v>7725</v>
+      </c>
+      <c r="G15">
+        <v>9861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16">
+        <v>3.98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16">
+        <v>2002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16">
+        <v>3847</v>
+      </c>
+      <c r="G16">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32">
+      <c r="A17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17">
+        <v>9.32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17">
+        <v>7869</v>
+      </c>
+      <c r="G17">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18">
+        <v>22.28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18">
+        <v>1992</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18">
+        <v>8014</v>
+      </c>
+      <c r="G18">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -1835,13 +2926,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A333A68B-0059-403C-82CD-FB85142D0B9E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1855,6 +2950,188 @@
       </c>
       <c r="D1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>7564</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3847</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>7854</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11">
+        <v>6711</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6856</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7001</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7290</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7435</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11">
+        <v>7580</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7725</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>7869</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>8014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1864,13 +3141,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289AAB-8F71-4DD5-BC1B-09F706C8F8CB}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="184" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1884,6 +3167,230 @@
       </c>
       <c r="D1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1342</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1072</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>9821</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8921</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1802</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9467</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1388</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1609</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1830</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2051</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1893,16 +3400,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809AA38-0CC1-4FCA-A686-0D43D44BAAE8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1914,6 +3422,193 @@
       </c>
       <c r="C1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>9908</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>9879</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3746</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>9898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2466</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9596</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>9433</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>9591</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9726</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9861</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>9996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1026</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1923,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1948,7 +3643,7 @@
         <v>967594</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1956,7 +3651,7 @@
         <v>967595</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1964,7 +3659,7 @@
         <v>967596</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1972,7 +3667,7 @@
         <v>967597</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1980,7 +3675,7 @@
         <v>967598</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1988,7 +3683,7 @@
         <v>967599</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1996,7 +3691,7 @@
         <v>967600</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2004,7 +3699,7 @@
         <v>967601</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2012,7 +3707,87 @@
         <v>967602</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>967603</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>967604</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>967605</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>967606</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>967607</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>967608</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>967609</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>967610</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>967611</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>967612</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2026,6 +3801,16 @@
     <hyperlink ref="B8" r:id="rId7" xr:uid="{F74D0E8B-96CD-E647-A51A-AEE8E9766F91}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{043315D8-0301-8042-B3E3-52014BD5A615}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{4AB611A6-F591-5A41-9AFE-62B317B70356}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{3D9CB2BB-37EE-5B49-8273-22B465C1BC7A}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{41F145C9-6223-6F4B-9D30-931B41F88655}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{6130BB83-FE09-0B40-A936-D53291A1FF8D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{D9DA65BC-18FD-574A-85A5-3EC564978BA9}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{45B4EE4F-24B9-1641-A325-DA9588425A4F}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{BEBE4CF8-7C2E-E844-AED8-7CED3F7A0AA1}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{39E16006-315D-DE41-A20E-B5ADF8C95E43}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{56801AC5-F003-9C4B-9DFC-5DF4E625DA8E}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{AA112956-B39E-B247-AE5F-B07CD783EAFA}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{BDC1450F-B79C-8747-819B-5E22316E0DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -2066,155 +3851,325 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
       <c r="D2">
         <v>5166555901</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
       </c>
       <c r="D3">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
       </c>
       <c r="D5">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
       </c>
       <c r="D6">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
       </c>
       <c r="D7">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
       </c>
       <c r="D8">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
       </c>
       <c r="D9">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
       </c>
       <c r="D10">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>5168584056.6666698</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12">
+        <v>5168631211.1666698</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>5168678365.6666698</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>5168725520.1666698</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15">
+        <v>5168772674.6666698</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>5168819829.1666698</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>5168866983.6666698</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18">
+        <v>5168914138.1666698</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>5168961292.6666698</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20">
+        <v>5169008447.1666698</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2228,6 +4183,16 @@
     <hyperlink ref="A8" r:id="rId7" xr:uid="{1D9F85A9-C114-F141-B3B8-F30234CC5B4B}"/>
     <hyperlink ref="A9" r:id="rId8" xr:uid="{7E115A93-9C26-AC42-B4D5-D39434851F8B}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{BA488B69-1300-FF4F-A190-01E94390E4CA}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{451DF595-8639-5143-97B6-2398E1AE4B96}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{52F0108E-6EB0-6F44-8EB1-CDDD6F115EE6}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{D760FE8D-9AC0-014F-8335-893378EC9D55}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{F2C3C76D-C6C0-D348-9D8E-EED24FFB4893}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{FC1D0A48-1371-5C42-B67E-4ABC4533F081}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{801BEF87-EBCE-D54A-8259-B745C299781A}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{B120DB52-F0E5-1E4B-9502-2A0456D2B24A}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{66152978-8F6A-4A4E-9736-CE01BB4A9C72}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{8054D30F-6922-0D45-B847-34F3E1D7AD65}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{C174CF3A-6407-4F4A-8C38-9D5CE6AAA379}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2238,7 +4203,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents &amp; Important Staffs\Nafis\Github Projects\LibraryDatabaseSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19C8CB-3CEA-D546-A975-8C446A0BF151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A26D5B-B9E5-4752-A386-CAA23B57D621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="19090" yWindow="-5910" windowWidth="38620" windowHeight="21220" activeTab="14" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="286">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -692,9 +692,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Anne</t>
   </si>
   <si>
@@ -792,6 +789,114 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>A1432</t>
+  </si>
+  <si>
+    <t>A1342</t>
+  </si>
+  <si>
+    <t>A1252</t>
+  </si>
+  <si>
+    <t>A1162</t>
+  </si>
+  <si>
+    <t>A1072</t>
+  </si>
+  <si>
+    <t>A9821</t>
+  </si>
+  <si>
+    <t>A8921</t>
+  </si>
+  <si>
+    <t>A1802</t>
+  </si>
+  <si>
+    <t>A7121</t>
+  </si>
+  <si>
+    <t>A6221</t>
+  </si>
+  <si>
+    <t>A9467</t>
+  </si>
+  <si>
+    <t>A1167</t>
+  </si>
+  <si>
+    <t>A1388</t>
+  </si>
+  <si>
+    <t>A1609</t>
+  </si>
+  <si>
+    <t>A1830</t>
+  </si>
+  <si>
+    <t>A2051</t>
+  </si>
+  <si>
+    <t>OD-001</t>
+  </si>
+  <si>
+    <t>OD-002</t>
+  </si>
+  <si>
+    <t>OD-003</t>
+  </si>
+  <si>
+    <t>OD-004</t>
+  </si>
+  <si>
+    <t>OD-005</t>
+  </si>
+  <si>
+    <t>OD-006</t>
+  </si>
+  <si>
+    <t>OD-007</t>
+  </si>
+  <si>
+    <t>OD-008</t>
+  </si>
+  <si>
+    <t>OD-009</t>
+  </si>
+  <si>
+    <t>OD-010</t>
+  </si>
+  <si>
+    <t>OD-011</t>
+  </si>
+  <si>
+    <t>OD-012</t>
+  </si>
+  <si>
+    <t>OD-013</t>
+  </si>
+  <si>
+    <t>OD-014</t>
+  </si>
+  <si>
+    <t>OD-015</t>
+  </si>
+  <si>
+    <t>OD-016</t>
+  </si>
+  <si>
+    <t>OD-017</t>
+  </si>
+  <si>
+    <t>OD-018</t>
+  </si>
+  <si>
+    <t>OD-019</t>
   </si>
 </sst>
 </file>
@@ -860,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -899,6 +1004,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,15 +1332,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1244,8 +1358,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>217</v>
+      <c r="A2" s="8">
+        <v>116789</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>33</v>
@@ -1393,19 +1507,19 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1423,114 +1537,271 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
       <c r="E2" s="4">
         <v>5474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" s="4">
-        <v>1244</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
       <c r="E4" s="4">
         <v>3948</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="4">
         <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="E6" s="4">
         <v>9454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" s="4">
         <v>3456</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="E8" s="4">
         <v>5675</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="E9" s="4">
         <v>9385</v>
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
       <c r="E10" s="4">
-        <v>1234</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="E11" s="4">
         <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" s="4">
         <v>3948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" s="4">
         <v>9087</v>
       </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
       <c r="E14" s="4">
         <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
       <c r="E15" s="4">
         <v>4567</v>
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" s="4">
         <v>5678</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="E17" s="4">
         <v>7893</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="E18" s="4">
         <v>3424</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
       <c r="E19" s="4">
         <v>5753</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" s="4">
         <v>5683</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
@@ -1538,7 +1809,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1552,100 +1823,280 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>5474</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B2" s="17">
+        <v>44247</v>
+      </c>
+      <c r="C2" s="17">
+        <v>44261</v>
+      </c>
+      <c r="D2" s="8">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="18">
+        <v>8521</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43990</v>
+      </c>
+      <c r="C3" s="17">
+        <v>44002</v>
+      </c>
+      <c r="D3" s="8">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3948</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="17">
+        <v>44090</v>
+      </c>
+      <c r="C4" s="17">
+        <v>44104</v>
+      </c>
+      <c r="D4" s="8">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>2039</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="17">
+        <v>44301</v>
+      </c>
+      <c r="C5" s="17">
+        <v>44315</v>
+      </c>
+      <c r="D5" s="8">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>9454</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="17">
+        <v>44223</v>
+      </c>
+      <c r="C6" s="17">
+        <v>44237</v>
+      </c>
+      <c r="D6" s="8">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>3456</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="17">
+        <v>44026</v>
+      </c>
+      <c r="C7" s="17">
+        <v>44040</v>
+      </c>
+      <c r="D7" s="8">
+        <v>186797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>5675</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="17">
+        <v>43960</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43974</v>
+      </c>
+      <c r="D8" s="8">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>9385</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="17">
+        <v>43896</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43910</v>
+      </c>
+      <c r="D9" s="8">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>9630</v>
+      </c>
+      <c r="B10" s="17">
+        <v>43926</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43940</v>
+      </c>
+      <c r="D10" s="8">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>5970</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="17">
+        <v>43994</v>
+      </c>
+      <c r="C11" s="17">
+        <v>44001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>176796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>3948</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="17">
+        <v>44177</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44191</v>
+      </c>
+      <c r="D12" s="8">
+        <v>156794</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>9087</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="17">
+        <v>44000</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44014</v>
+      </c>
+      <c r="D13" s="8">
+        <v>146793</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>2345</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="17">
+        <v>44280</v>
+      </c>
+      <c r="C14" s="17">
+        <v>44294</v>
+      </c>
+      <c r="D14" s="8">
+        <v>166795</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>4567</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="17">
+        <v>44090</v>
+      </c>
+      <c r="C15" s="17">
+        <v>44104</v>
+      </c>
+      <c r="D15" s="8">
+        <v>136792</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>5678</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="17">
+        <v>44026</v>
+      </c>
+      <c r="C16" s="17">
+        <v>44040</v>
+      </c>
+      <c r="D16" s="8">
+        <v>176796</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>7893</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="17">
+        <v>44155</v>
+      </c>
+      <c r="C17" s="17">
+        <v>44169</v>
+      </c>
+      <c r="D17" s="8">
+        <v>166795</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>3424</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="17">
+        <v>44200</v>
+      </c>
+      <c r="C18" s="17">
+        <v>44214</v>
+      </c>
+      <c r="D18" s="8">
+        <v>146793</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>5753</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="17">
+        <v>44000</v>
+      </c>
+      <c r="C19" s="17">
+        <v>44014</v>
+      </c>
+      <c r="D19" s="8">
+        <v>196798</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>5683</v>
       </c>
+      <c r="B20" s="17">
+        <v>43961</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43975</v>
+      </c>
+      <c r="D20" s="8">
+        <v>136792</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,16 +2108,16 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1678,95 +2129,152 @@
       <c r="A2" s="4">
         <v>5474</v>
       </c>
+      <c r="B2">
+        <v>967601</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4">
-        <v>1244</v>
+        <v>8521</v>
+      </c>
+      <c r="B3">
+        <v>967594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>3948</v>
       </c>
+      <c r="B4">
+        <v>967598</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>2039</v>
       </c>
+      <c r="B5">
+        <v>967604</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>9454</v>
       </c>
+      <c r="B6">
+        <v>967609</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>3456</v>
       </c>
+      <c r="B7">
+        <v>967595</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>5675</v>
       </c>
+      <c r="B8">
+        <v>967611</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>9385</v>
       </c>
+      <c r="B9">
+        <v>967600</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4">
-        <v>1234</v>
+        <v>9630</v>
+      </c>
+      <c r="B10">
+        <v>967596</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>5970</v>
       </c>
+      <c r="B11">
+        <v>967599</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>3948</v>
       </c>
+      <c r="B12">
+        <v>967603</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>9087</v>
       </c>
+      <c r="B13">
+        <v>967608</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>2345</v>
       </c>
+      <c r="B14">
+        <v>967607</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>4567</v>
       </c>
+      <c r="B15">
+        <v>967602</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>5678</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>967606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>7893</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>967597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>3424</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>967610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>5753</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>967612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>5683</v>
+      </c>
+      <c r="B20">
+        <v>967605</v>
       </c>
     </row>
   </sheetData>
@@ -1776,13 +2284,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1790,6 +2298,158 @@
       </c>
       <c r="B1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>5474</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="18">
+        <v>8521</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>3948</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>9454</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>3456</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>5675</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>9385</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="19" customFormat="1">
+      <c r="A10" s="18">
+        <v>9630</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>5970</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>3948</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>9087</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>2345</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>4567</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>5678</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>7893</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>3424</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>5753</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>5683</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -1799,23 +2459,176 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661601E-573F-4931-A9F7-22CDAD4DADD0}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>5474</v>
+      </c>
+      <c r="B2" s="17">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18">
+        <v>8521</v>
+      </c>
+      <c r="B3" s="17">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>3948</v>
+      </c>
+      <c r="B4" s="17">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>2039</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>9454</v>
+      </c>
+      <c r="B6" s="17">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>3456</v>
+      </c>
+      <c r="B7" s="17">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>5675</v>
+      </c>
+      <c r="B8" s="17">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>9385</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>9630</v>
+      </c>
+      <c r="B10" s="17">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>5970</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>3948</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>9087</v>
+      </c>
+      <c r="B13" s="17">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>2345</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>4567</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>5678</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>7893</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>3424</v>
+      </c>
+      <c r="B18" s="17">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>5753</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>5683</v>
+      </c>
+      <c r="B20" s="17">
+        <v>43975</v>
       </c>
     </row>
   </sheetData>
@@ -1825,24 +2638,204 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="G27" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,23 +2846,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="8"/>
     <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="8"/>
-    <col min="4" max="4" width="24.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.77734375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +2885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32">
+    <row r="2" spans="1:9" ht="28.8">
       <c r="A2" s="4">
         <v>1232</v>
       </c>
@@ -1978,7 +2971,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="4">
-        <v>1244</v>
+        <v>8521</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>66</v>
@@ -2127,7 +3120,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="4">
-        <v>1234</v>
+        <v>9630</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>112</v>
@@ -2397,7 +3390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="32">
+    <row r="25" spans="1:9" ht="28.8">
       <c r="A25" s="4">
         <v>1255</v>
       </c>
@@ -2494,14 +3487,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E1" sqref="E1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2528,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
@@ -2693,7 +3687,7 @@
       <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -2831,7 +3825,7 @@
       <c r="A15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="20">
         <v>8.1999999999999993</v>
       </c>
       <c r="C15" t="s">
@@ -2873,7 +3867,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32">
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="4" t="s">
         <v>168</v>
       </c>
@@ -2921,6 +3915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2929,13 +3924,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3019,7 +4015,7 @@
         <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3061,7 +4057,7 @@
         <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3103,7 +4099,7 @@
         <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3144,15 +4140,14 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="184" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3170,227 +4165,227 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1432</v>
+      <c r="A2" t="s">
+        <v>251</v>
       </c>
       <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
         <v>218</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>219</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1342</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1252</v>
+      <c r="A4" t="s">
+        <v>253</v>
       </c>
       <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
         <v>223</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>224</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1162</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1072</v>
+      <c r="A6" t="s">
+        <v>255</v>
       </c>
       <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
         <v>228</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>229</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>9821</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>231</v>
-      </c>
-      <c r="C7" t="s">
-        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>8921</v>
+      <c r="A8" t="s">
+        <v>257</v>
       </c>
       <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>234</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1802</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>237</v>
       </c>
       <c r="D9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>7121</v>
+      <c r="A10" t="s">
+        <v>259</v>
       </c>
       <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>6221</v>
+      <c r="A11" t="s">
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>9467</v>
+      <c r="A12" t="s">
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1167</v>
+      <c r="A13" t="s">
+        <v>262</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1388</v>
+      <c r="A14" t="s">
+        <v>263</v>
       </c>
       <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
         <v>243</v>
-      </c>
-      <c r="C14" t="s">
-        <v>244</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1609</v>
+      <c r="A15" t="s">
+        <v>264</v>
       </c>
       <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
         <v>245</v>
-      </c>
-      <c r="C15" t="s">
-        <v>246</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1830</v>
+      <c r="A16" t="s">
+        <v>265</v>
       </c>
       <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
         <v>247</v>
-      </c>
-      <c r="C16" t="s">
-        <v>248</v>
       </c>
       <c r="D16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
-        <v>2051</v>
+      <c r="A17" t="s">
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>196</v>
       </c>
       <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
         <v>249</v>
-      </c>
-      <c r="D17" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3403,13 +4398,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3621,13 +4616,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3821,10 +4816,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -4200,20 +5195,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="8"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4223,101 +5220,273 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>10005</v>
+      </c>
+      <c r="B2" s="17">
+        <v>44261</v>
+      </c>
       <c r="C2" s="4">
         <v>5474</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="4"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>10009</v>
+      </c>
+      <c r="B3" s="17">
+        <v>44002</v>
+      </c>
       <c r="C3" s="4">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8521</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10013</v>
+      </c>
+      <c r="B4" s="17">
+        <v>44104</v>
+      </c>
       <c r="C4" s="4">
         <v>3948</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>10008</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44315</v>
+      </c>
       <c r="C5" s="4">
         <v>2039</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="17">
+        <v>44237</v>
+      </c>
       <c r="C6" s="4">
         <v>9454</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="4"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>10011</v>
+      </c>
+      <c r="B7" s="17">
+        <v>44040</v>
+      </c>
       <c r="C7" s="4">
         <v>3456</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="4"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>10018</v>
+      </c>
+      <c r="B8" s="17">
+        <v>43974</v>
+      </c>
       <c r="C8" s="4">
         <v>5675</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="4"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43910</v>
+      </c>
       <c r="C9" s="4">
         <v>9385</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9" s="4"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>10014</v>
+      </c>
+      <c r="B10" s="17">
+        <v>43940</v>
+      </c>
       <c r="C10" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>9630</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44001</v>
+      </c>
       <c r="C11" s="4">
         <v>5970</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11" s="4"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>10017</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44191</v>
+      </c>
       <c r="C12" s="4">
         <v>3948</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12" s="4"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10002</v>
+      </c>
+      <c r="B13" s="17">
+        <v>44014</v>
+      </c>
       <c r="C13" s="4">
         <v>9087</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" s="4"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44294</v>
+      </c>
       <c r="C14" s="4">
         <v>2345</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="4"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>10019</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44104</v>
+      </c>
       <c r="C15" s="4">
         <v>4567</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="4"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>10010</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44040</v>
+      </c>
       <c r="C16" s="4">
         <v>5678</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="G16" s="4"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44169</v>
+      </c>
       <c r="C17" s="4">
         <v>7893</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
+      <c r="G17" s="4"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>10003</v>
+      </c>
+      <c r="B18" s="17">
+        <v>44214</v>
+      </c>
       <c r="C18" s="4">
         <v>3424</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44014</v>
+      </c>
       <c r="C19" s="4">
         <v>5753</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>10007</v>
+      </c>
+      <c r="B20" s="17">
+        <v>43975</v>
+      </c>
       <c r="C20" s="4">
         <v>5683</v>
       </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4325,6 +5494,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4552,15 +5730,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4571,6 +5740,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4590,16 +5769,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
   <ds:schemaRefs>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents &amp; Important Staffs\Nafis\Github Projects\LibraryDatabaseSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\GitHub\LibraryDatabaseSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A26D5B-B9E5-4752-A386-CAA23B57D621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BDF44-3141-43A5-BC6D-8A6A9F45476C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5910" windowWidth="38620" windowHeight="21220" activeTab="14" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="-6165" yWindow="10500" windowWidth="14700" windowHeight="12810" tabRatio="946" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -18,21 +18,30 @@
     <sheet name="Book" sheetId="2" r:id="rId3"/>
     <sheet name="Genre_Type" sheetId="3" r:id="rId4"/>
     <sheet name="Author" sheetId="4" r:id="rId5"/>
-    <sheet name="Publisher" sheetId="5" r:id="rId6"/>
-    <sheet name="Member" sheetId="6" r:id="rId7"/>
-    <sheet name="Member_Info" sheetId="11" r:id="rId8"/>
-    <sheet name="Book_Return" sheetId="7" r:id="rId9"/>
-    <sheet name="Book_Overdue" sheetId="8" r:id="rId10"/>
-    <sheet name="Book_Loan" sheetId="9" r:id="rId11"/>
-    <sheet name="Member_Book_Loan" sheetId="12" r:id="rId12"/>
-    <sheet name="Book_Copy" sheetId="13" r:id="rId13"/>
-    <sheet name="Loan" sheetId="14" r:id="rId14"/>
-    <sheet name="Book_Author" sheetId="15" r:id="rId15"/>
+    <sheet name="Book_Author" sheetId="15" r:id="rId6"/>
+    <sheet name="Publisher" sheetId="5" r:id="rId7"/>
+    <sheet name="Member" sheetId="6" r:id="rId8"/>
+    <sheet name="Member_Info" sheetId="11" r:id="rId9"/>
+    <sheet name="Book_Return" sheetId="7" r:id="rId10"/>
+    <sheet name="Book_Overdue" sheetId="8" r:id="rId11"/>
+    <sheet name="Book_Loan" sheetId="9" r:id="rId12"/>
+    <sheet name="Member_Book_Loan" sheetId="12" r:id="rId13"/>
+    <sheet name="Book_Copy" sheetId="13" r:id="rId14"/>
+    <sheet name="Loan" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -903,7 +912,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,12 +927,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="WordVisi_MSFontService"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -936,6 +939,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -963,56 +979,106 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,33 +1397,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>116789</v>
       </c>
@@ -1371,7 +1435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>116790</v>
       </c>
@@ -1385,7 +1449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>126791</v>
       </c>
@@ -1399,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>136792</v>
       </c>
@@ -1413,7 +1477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>146793</v>
       </c>
@@ -1427,7 +1491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>156794</v>
       </c>
@@ -1441,7 +1505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>166795</v>
       </c>
@@ -1455,7 +1519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>176796</v>
       </c>
@@ -1469,7 +1533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>186797</v>
       </c>
@@ -1483,7 +1547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>196798</v>
       </c>
@@ -1503,779 +1567,898 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D05F-D553-4F5B-894F-214976EA1880}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="8"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10005</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44261</v>
+      </c>
+      <c r="C2" s="1">
         <v>5474</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10009</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44002</v>
+      </c>
+      <c r="C3" s="1">
         <v>8521</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10013</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44104</v>
+      </c>
+      <c r="C4" s="1">
         <v>3948</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10008</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44315</v>
+      </c>
+      <c r="C5" s="1">
         <v>2039</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44237</v>
+      </c>
+      <c r="C6" s="1">
         <v>9454</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10011</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44040</v>
+      </c>
+      <c r="C7" s="1">
         <v>3456</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10018</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43974</v>
+      </c>
+      <c r="C8" s="1">
         <v>5675</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C9" s="1">
         <v>9385</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10014</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C10" s="1">
         <v>9630</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44001</v>
+      </c>
+      <c r="C11" s="1">
         <v>5970</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10017</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44191</v>
+      </c>
+      <c r="C12" s="1">
         <v>3948</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10002</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C13" s="1">
         <v>9087</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44294</v>
+      </c>
+      <c r="C14" s="1">
         <v>2345</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10019</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44104</v>
+      </c>
+      <c r="C15" s="1">
         <v>4567</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10010</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44040</v>
+      </c>
+      <c r="C16" s="1">
         <v>5678</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44169</v>
+      </c>
+      <c r="C17" s="1">
         <v>7893</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10003</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44214</v>
+      </c>
+      <c r="C18" s="1">
         <v>3424</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C19" s="1">
         <v>5753</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10007</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43975</v>
+      </c>
+      <c r="C20" s="1">
         <v>5683</v>
       </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D05F-D553-4F5B-894F-214976EA1880}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4">
-        <v>5474</v>
-      </c>
-      <c r="B2" s="17">
-        <v>44247</v>
-      </c>
-      <c r="C2" s="17">
-        <v>44261</v>
-      </c>
-      <c r="D2" s="8">
-        <v>156794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="18">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>8521</v>
       </c>
-      <c r="B3" s="17">
-        <v>43990</v>
-      </c>
-      <c r="C3" s="17">
-        <v>44002</v>
-      </c>
-      <c r="D3" s="8">
-        <v>136792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
         <v>3948</v>
       </c>
-      <c r="B4" s="17">
-        <v>44090</v>
-      </c>
-      <c r="C4" s="17">
-        <v>44104</v>
-      </c>
-      <c r="D4" s="8">
-        <v>116789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>2039</v>
       </c>
-      <c r="B5" s="17">
-        <v>44301</v>
-      </c>
-      <c r="C5" s="17">
-        <v>44315</v>
-      </c>
-      <c r="D5" s="8">
-        <v>196798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>9454</v>
       </c>
-      <c r="B6" s="17">
-        <v>44223</v>
-      </c>
-      <c r="C6" s="17">
-        <v>44237</v>
-      </c>
-      <c r="D6" s="8">
-        <v>166795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>3456</v>
       </c>
-      <c r="B7" s="17">
-        <v>44026</v>
-      </c>
-      <c r="C7" s="17">
-        <v>44040</v>
-      </c>
-      <c r="D7" s="8">
-        <v>186797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>5675</v>
       </c>
-      <c r="B8" s="17">
-        <v>43960</v>
-      </c>
-      <c r="C8" s="17">
-        <v>43974</v>
-      </c>
-      <c r="D8" s="8">
-        <v>116789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
         <v>9385</v>
       </c>
-      <c r="B9" s="17">
-        <v>43896</v>
-      </c>
-      <c r="C9" s="17">
-        <v>43910</v>
-      </c>
-      <c r="D9" s="8">
-        <v>196798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>9630</v>
       </c>
-      <c r="B10" s="17">
-        <v>43926</v>
-      </c>
-      <c r="C10" s="17">
-        <v>43940</v>
-      </c>
-      <c r="D10" s="8">
-        <v>156794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>5970</v>
       </c>
-      <c r="B11" s="17">
-        <v>43994</v>
-      </c>
-      <c r="C11" s="17">
-        <v>44001</v>
-      </c>
-      <c r="D11" s="8">
-        <v>176796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>3948</v>
       </c>
-      <c r="B12" s="17">
-        <v>44177</v>
-      </c>
-      <c r="C12" s="17">
-        <v>44191</v>
-      </c>
-      <c r="D12" s="8">
-        <v>156794</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>9087</v>
       </c>
-      <c r="B13" s="17">
-        <v>44000</v>
-      </c>
-      <c r="C13" s="17">
-        <v>44014</v>
-      </c>
-      <c r="D13" s="8">
-        <v>146793</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
         <v>2345</v>
       </c>
-      <c r="B14" s="17">
-        <v>44280</v>
-      </c>
-      <c r="C14" s="17">
-        <v>44294</v>
-      </c>
-      <c r="D14" s="8">
-        <v>166795</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
         <v>4567</v>
       </c>
-      <c r="B15" s="17">
-        <v>44090</v>
-      </c>
-      <c r="C15" s="17">
-        <v>44104</v>
-      </c>
-      <c r="D15" s="8">
-        <v>136792</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>5678</v>
       </c>
-      <c r="B16" s="17">
-        <v>44026</v>
-      </c>
-      <c r="C16" s="17">
-        <v>44040</v>
-      </c>
-      <c r="D16" s="8">
-        <v>176796</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>7893</v>
       </c>
-      <c r="B17" s="17">
-        <v>44155</v>
-      </c>
-      <c r="C17" s="17">
-        <v>44169</v>
-      </c>
-      <c r="D17" s="8">
-        <v>166795</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>3424</v>
       </c>
-      <c r="B18" s="17">
-        <v>44200</v>
-      </c>
-      <c r="C18" s="17">
-        <v>44214</v>
-      </c>
-      <c r="D18" s="8">
-        <v>146793</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
         <v>5753</v>
       </c>
-      <c r="B19" s="17">
-        <v>44000</v>
-      </c>
-      <c r="C19" s="17">
-        <v>44014</v>
-      </c>
-      <c r="D19" s="8">
-        <v>196798</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>5683</v>
       </c>
-      <c r="B20" s="17">
-        <v>43961</v>
-      </c>
-      <c r="C20" s="17">
-        <v>43975</v>
-      </c>
-      <c r="D20" s="8">
-        <v>136792</v>
-      </c>
-      <c r="G20" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="B1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>5474</v>
       </c>
-      <c r="B2">
-        <v>967601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="B2" s="30">
+        <v>44247</v>
+      </c>
+      <c r="C2" s="30">
+        <v>44261</v>
+      </c>
+      <c r="D2" s="31">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <v>8521</v>
       </c>
-      <c r="B3">
-        <v>967594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="B3" s="30">
+        <v>43990</v>
+      </c>
+      <c r="C3" s="30">
+        <v>44002</v>
+      </c>
+      <c r="D3" s="31">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3948</v>
       </c>
-      <c r="B4">
-        <v>967598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="B4" s="30">
+        <v>44090</v>
+      </c>
+      <c r="C4" s="30">
+        <v>44104</v>
+      </c>
+      <c r="D4" s="31">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>2039</v>
       </c>
-      <c r="B5">
-        <v>967604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="B5" s="30">
+        <v>44301</v>
+      </c>
+      <c r="C5" s="30">
+        <v>44315</v>
+      </c>
+      <c r="D5" s="31">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>9454</v>
       </c>
-      <c r="B6">
-        <v>967609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="B6" s="30">
+        <v>44223</v>
+      </c>
+      <c r="C6" s="30">
+        <v>44237</v>
+      </c>
+      <c r="D6" s="31">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>3456</v>
       </c>
-      <c r="B7">
-        <v>967595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="B7" s="30">
+        <v>44026</v>
+      </c>
+      <c r="C7" s="30">
+        <v>44040</v>
+      </c>
+      <c r="D7" s="31">
+        <v>186797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>5675</v>
       </c>
-      <c r="B8">
-        <v>967611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="B8" s="30">
+        <v>43960</v>
+      </c>
+      <c r="C8" s="30">
+        <v>43974</v>
+      </c>
+      <c r="D8" s="31">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>9385</v>
       </c>
-      <c r="B9">
-        <v>967600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="B9" s="30">
+        <v>43896</v>
+      </c>
+      <c r="C9" s="30">
+        <v>43910</v>
+      </c>
+      <c r="D9" s="31">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>9630</v>
       </c>
-      <c r="B10">
-        <v>967596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="B10" s="30">
+        <v>43926</v>
+      </c>
+      <c r="C10" s="30">
+        <v>43940</v>
+      </c>
+      <c r="D10" s="31">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>5970</v>
       </c>
-      <c r="B11">
-        <v>967599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="B11" s="30">
+        <v>43994</v>
+      </c>
+      <c r="C11" s="30">
+        <v>44001</v>
+      </c>
+      <c r="D11" s="31">
+        <v>176796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>3948</v>
       </c>
-      <c r="B12">
-        <v>967603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="B12" s="30">
+        <v>44177</v>
+      </c>
+      <c r="C12" s="30">
+        <v>44191</v>
+      </c>
+      <c r="D12" s="31">
+        <v>156794</v>
+      </c>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>9087</v>
       </c>
-      <c r="B13">
-        <v>967608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="B13" s="30">
+        <v>44000</v>
+      </c>
+      <c r="C13" s="30">
+        <v>44014</v>
+      </c>
+      <c r="D13" s="31">
+        <v>146793</v>
+      </c>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>2345</v>
       </c>
-      <c r="B14">
-        <v>967607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="B14" s="30">
+        <v>44280</v>
+      </c>
+      <c r="C14" s="30">
+        <v>44294</v>
+      </c>
+      <c r="D14" s="31">
+        <v>166795</v>
+      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>4567</v>
       </c>
-      <c r="B15">
-        <v>967602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="B15" s="30">
+        <v>44090</v>
+      </c>
+      <c r="C15" s="30">
+        <v>44104</v>
+      </c>
+      <c r="D15" s="31">
+        <v>136792</v>
+      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>5678</v>
       </c>
-      <c r="B16">
-        <v>967606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="B16" s="30">
+        <v>44026</v>
+      </c>
+      <c r="C16" s="30">
+        <v>44040</v>
+      </c>
+      <c r="D16" s="31">
+        <v>176796</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>7893</v>
       </c>
-      <c r="B17">
-        <v>967597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="B17" s="30">
+        <v>44155</v>
+      </c>
+      <c r="C17" s="30">
+        <v>44169</v>
+      </c>
+      <c r="D17" s="31">
+        <v>166795</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>3424</v>
       </c>
-      <c r="B18">
-        <v>967610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="B18" s="30">
+        <v>44200</v>
+      </c>
+      <c r="C18" s="30">
+        <v>44214</v>
+      </c>
+      <c r="D18" s="31">
+        <v>146793</v>
+      </c>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>5753</v>
       </c>
-      <c r="B19">
-        <v>967612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="B19" s="30">
+        <v>44000</v>
+      </c>
+      <c r="C19" s="30">
+        <v>44014</v>
+      </c>
+      <c r="D19" s="31">
+        <v>196798</v>
+      </c>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>5683</v>
       </c>
-      <c r="B20">
-        <v>967605</v>
-      </c>
+      <c r="B20" s="30">
+        <v>43961</v>
+      </c>
+      <c r="C20" s="30">
+        <v>43975</v>
+      </c>
+      <c r="D20" s="31">
+        <v>136792</v>
+      </c>
+      <c r="G20" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,173 +2466,176 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="27"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="B1" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>5474</v>
       </c>
-      <c r="B2" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1">
-      <c r="A3" s="18">
+      <c r="B2" s="27">
+        <v>967601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>8521</v>
       </c>
-      <c r="B3" s="18">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="B3" s="27">
+        <v>967594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3948</v>
       </c>
-      <c r="B4" s="4">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="B4" s="27">
+        <v>967598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>2039</v>
       </c>
-      <c r="B5" s="4">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="B5" s="27">
+        <v>967604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>9454</v>
       </c>
-      <c r="B6" s="4">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="B6" s="27">
+        <v>967609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>3456</v>
       </c>
-      <c r="B7" s="4">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="B7" s="27">
+        <v>967595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>5675</v>
       </c>
-      <c r="B8" s="4">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="B8" s="27">
+        <v>967611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>9385</v>
       </c>
-      <c r="B9" s="4">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="19" customFormat="1">
-      <c r="A10" s="18">
+      <c r="B9" s="27">
+        <v>967600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>9630</v>
       </c>
-      <c r="B10" s="18">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="B10" s="27">
+        <v>967596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>5970</v>
       </c>
-      <c r="B11" s="4">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="B11" s="27">
+        <v>967599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>3948</v>
       </c>
-      <c r="B12" s="4">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="B12" s="27">
+        <v>967603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>9087</v>
       </c>
-      <c r="B13" s="4">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="B13" s="27">
+        <v>967608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>2345</v>
       </c>
-      <c r="B14" s="4">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="B14" s="27">
+        <v>967607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>4567</v>
       </c>
-      <c r="B15" s="4">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="B15" s="27">
+        <v>967602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>5678</v>
       </c>
-      <c r="B16" s="4">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="B16" s="27">
+        <v>967606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>7893</v>
       </c>
-      <c r="B17" s="4">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="B17" s="27">
+        <v>967597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>3424</v>
       </c>
-      <c r="B18" s="4">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="B18" s="27">
+        <v>967610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>5753</v>
       </c>
-      <c r="B19" s="4">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="B19" s="27">
+        <v>967612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>5683</v>
       </c>
-      <c r="B20" s="4">
-        <v>1257</v>
+      <c r="B20" s="27">
+        <v>967605</v>
       </c>
     </row>
   </sheetData>
@@ -2458,177 +2644,181 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661601E-573F-4931-A9F7-22CDAD4DADD0}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>5474</v>
       </c>
-      <c r="B2" s="17">
-        <v>44261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18">
+      <c r="B2" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>8521</v>
       </c>
-      <c r="B3" s="17">
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="B3" s="6">
+        <v>1235</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3948</v>
       </c>
-      <c r="B4" s="17">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="B4" s="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2039</v>
       </c>
-      <c r="B5" s="17">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="B5" s="1">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>9454</v>
       </c>
-      <c r="B6" s="17">
-        <v>44237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="B6" s="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3456</v>
       </c>
-      <c r="B7" s="17">
-        <v>44040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="B7" s="1">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5675</v>
       </c>
-      <c r="B8" s="17">
-        <v>43974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="B8" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9385</v>
       </c>
-      <c r="B9" s="17">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="B9" s="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9630</v>
       </c>
-      <c r="B10" s="17">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="B10" s="6">
+        <v>1242</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>5970</v>
       </c>
-      <c r="B11" s="17">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="B11" s="1">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3948</v>
       </c>
-      <c r="B12" s="17">
-        <v>44191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="B12" s="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>9087</v>
       </c>
-      <c r="B13" s="17">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="B13" s="1">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2345</v>
       </c>
-      <c r="B14" s="17">
-        <v>44294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="B14" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>4567</v>
       </c>
-      <c r="B15" s="17">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="B15" s="1">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>5678</v>
       </c>
-      <c r="B16" s="17">
-        <v>44040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="B16" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>7893</v>
       </c>
-      <c r="B17" s="17">
-        <v>44169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="B17" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3424</v>
       </c>
-      <c r="B18" s="17">
-        <v>44214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="B18" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>5753</v>
       </c>
-      <c r="B19" s="17">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="B19" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>5683</v>
       </c>
-      <c r="B20" s="17">
-        <v>43975</v>
+      <c r="B20" s="1">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -2637,205 +2827,177 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661601E-573F-4931-A9F7-22CDAD4DADD0}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="G27" s="19"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>5474</v>
+      </c>
+      <c r="B2" s="35">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>8521</v>
+      </c>
+      <c r="B3" s="35">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3948</v>
+      </c>
+      <c r="B4" s="35">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2039</v>
+      </c>
+      <c r="B5" s="35">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>9454</v>
+      </c>
+      <c r="B6" s="35">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3456</v>
+      </c>
+      <c r="B7" s="35">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5675</v>
+      </c>
+      <c r="B8" s="35">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9385</v>
+      </c>
+      <c r="B9" s="35">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9630</v>
+      </c>
+      <c r="B10" s="35">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5970</v>
+      </c>
+      <c r="B11" s="35">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3948</v>
+      </c>
+      <c r="B12" s="35">
+        <v>44191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9087</v>
+      </c>
+      <c r="B13" s="35">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2345</v>
+      </c>
+      <c r="B14" s="35">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>4567</v>
+      </c>
+      <c r="B15" s="35">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>5678</v>
+      </c>
+      <c r="B16" s="35">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7893</v>
+      </c>
+      <c r="B17" s="35">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>3424</v>
+      </c>
+      <c r="B18" s="35">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>5753</v>
+      </c>
+      <c r="B19" s="35">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>5683</v>
+      </c>
+      <c r="B20" s="35">
+        <v>43975</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,621 +3006,686 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8"/>
-    <col min="2" max="2" width="14.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="8"/>
-    <col min="4" max="4" width="34.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="11"/>
+    <col min="6" max="6" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8">
-      <c r="A2" s="4">
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1232</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="21">
         <v>3879</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>1233</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="21">
         <v>1112</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1234</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>5474</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>1235</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>8521</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>1236</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>3948</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>1237</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="16">
         <v>2039</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>1238</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>9454</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>1239</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>3456</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="E9" s="17"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>1240</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>5675</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="E10" s="17"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>1241</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>9385</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>1242</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>9630</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="E12" s="17"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>1243</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>5970</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>1244</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="16">
         <v>3948</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>1245</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="16">
         <v>9087</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="E15" s="17"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>1246</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="16">
         <v>2345</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>1247</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="16">
         <v>4567</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>1248</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="16">
         <v>5678</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="E18" s="17"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>1249</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="16">
         <v>7893</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="E19" s="17"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>1250</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="16">
         <v>3424</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>1251</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="16">
         <v>5753</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="E21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>1252</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="16">
         <v>8989</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>1253</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="16">
         <v>3874</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>1254</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="16">
         <v>9881</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8">
-      <c r="A25" s="4">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>1255</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="16">
         <v>6878</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>1256</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="16">
         <v>2344</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="E26" s="17"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>1257</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="16">
         <v>5683</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="24" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
     <hyperlink ref="I7" r:id="rId2" xr:uid="{FA505670-A0ED-C14C-8BCC-6E4FC307140F}"/>
@@ -3479,6 +3706,7 @@
     <hyperlink ref="I25" r:id="rId17" xr:uid="{2F948A7F-D1C4-BF45-8BD7-85B3C6A98F3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3486,430 +3714,431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="17">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17">
         <v>1947</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="17">
         <v>7564</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="17">
         <v>9908</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="17">
         <v>16.97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <v>1988</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="17">
         <v>3847</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>9879</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>9.99</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>1605</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <v>7854</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>3746</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="17">
         <v>11.99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>1993</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="19">
         <v>6711</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <v>9898</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="17">
         <v>11.17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <v>2009</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="19">
         <v>6711</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="17">
         <v>2466</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="17">
         <v>3.85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>1950</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="17">
         <v>6856</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="17">
         <v>9596</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="17">
         <v>11.55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <v>1932</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="17">
         <v>7001</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="17">
         <v>4536</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>2010</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="17">
         <v>7145</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>9433</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="17">
         <v>22.95</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="17">
         <v>1862</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="19">
         <v>6711</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <v>9123</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="17">
         <v>20.99</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17">
         <v>1960</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="17">
         <v>7290</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <v>9321</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="17">
         <v>20.11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="17">
         <v>1900</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="17">
         <v>7435</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="17">
         <v>9456</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="17">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>1953</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <v>7854</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="17">
         <v>9591</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="17">
         <v>12.29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="17">
         <v>2006</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="19">
         <v>7580</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="17">
         <v>9726</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>2006</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="17">
         <v>7725</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>9861</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="17">
         <v>3.98</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>2002</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="17">
         <v>3847</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="17">
         <v>9996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="17">
         <v>9.32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>2003</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="17">
         <v>7869</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="17">
         <v>1013</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="17">
         <v>22.28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="17">
         <v>1992</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="17">
         <v>8014</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="17">
         <v>1026</v>
       </c>
     </row>
@@ -3923,210 +4152,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A333A68B-0059-403C-82CD-FB85142D0B9E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>7564</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>3847</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>7854</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>6711</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>6856</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>7001</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7145</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7290</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>7435</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>7580</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>7725</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>7869</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>8014</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4139,18 +4368,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289AAB-8F71-4DD5-BC1B-09F706C8F8CB}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4164,7 +4391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -4178,7 +4405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>252</v>
       </c>
@@ -4192,7 +4419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -4206,7 +4433,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -4220,7 +4447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -4234,7 +4461,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -4248,7 +4475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -4262,7 +4489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -4276,7 +4503,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -4290,7 +4517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -4304,7 +4531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -4318,7 +4545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -4332,7 +4559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -4346,7 +4573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -4360,7 +4587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -4374,7 +4601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -4394,217 +4621,205 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809AA38-0CC1-4FCA-A686-0D43D44BAAE8}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" style="11"/>
+    <col min="6" max="6" width="25.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>9908</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>9879</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3746</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9898</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2466</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>9596</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>4536</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>9433</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>9456</v>
-      </c>
-      <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>9591</v>
-      </c>
-      <c r="B13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>9726</v>
-      </c>
-      <c r="B14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>9861</v>
-      </c>
-      <c r="B15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>9996</v>
-      </c>
-      <c r="B16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1013</v>
-      </c>
-      <c r="B17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>1026</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4612,20 +4827,234 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809AA38-0CC1-4FCA-A686-0D43D44BAAE8}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9908</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9879</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3746</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2466</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9596</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9433</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9591</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9726</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9861</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1026</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4633,155 +5062,155 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>967594</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>967595</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>967596</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>967597</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>967598</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>967599</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>967600</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>967601</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>967602</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>967603</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>967604</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>967605</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>967606</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>967607</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>967608</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>967609</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>967610</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>967611</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>967612</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4811,23 +5240,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4844,8 +5271,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
@@ -4861,8 +5288,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
@@ -4878,8 +5305,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
@@ -4895,8 +5322,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B5" t="s">
@@ -4912,8 +5339,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B6" t="s">
@@ -4929,8 +5356,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="s">
@@ -4946,8 +5373,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B8" t="s">
@@ -4963,8 +5390,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B9" t="s">
@@ -4980,8 +5407,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B10" t="s">
@@ -4997,8 +5424,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B11" t="s">
@@ -5014,8 +5441,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B12" t="s">
@@ -5031,8 +5458,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B13" t="s">
@@ -5048,8 +5475,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B14" t="s">
@@ -5065,8 +5492,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B15" t="s">
@@ -5082,8 +5509,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B16" t="s">
@@ -5099,8 +5526,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B17" t="s">
@@ -5116,8 +5543,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B18" t="s">
@@ -5133,8 +5560,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B19" t="s">
@@ -5150,8 +5577,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B20" t="s">
@@ -5189,306 +5616,6 @@
     <hyperlink ref="A19" r:id="rId18" xr:uid="{8054D30F-6922-0D45-B847-34F3E1D7AD65}"/>
     <hyperlink ref="A20" r:id="rId19" xr:uid="{C174CF3A-6407-4F4A-8C38-9D5CE6AAA379}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="8"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>10005</v>
-      </c>
-      <c r="B2" s="17">
-        <v>44261</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5474</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>10009</v>
-      </c>
-      <c r="B3" s="17">
-        <v>44002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8521</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>10013</v>
-      </c>
-      <c r="B4" s="17">
-        <v>44104</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3948</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>10008</v>
-      </c>
-      <c r="B5" s="17">
-        <v>44315</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2039</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="17">
-        <v>44237</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9454</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>10011</v>
-      </c>
-      <c r="B7" s="17">
-        <v>44040</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3456</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>10018</v>
-      </c>
-      <c r="B8" s="17">
-        <v>43974</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5675</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="17">
-        <v>43910</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9385</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>10014</v>
-      </c>
-      <c r="B10" s="17">
-        <v>43940</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9630</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10004</v>
-      </c>
-      <c r="B11" s="17">
-        <v>44001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5970</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>10017</v>
-      </c>
-      <c r="B12" s="17">
-        <v>44191</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3948</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10002</v>
-      </c>
-      <c r="B13" s="17">
-        <v>44014</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9087</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>10012</v>
-      </c>
-      <c r="B14" s="17">
-        <v>44294</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2345</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>10019</v>
-      </c>
-      <c r="B15" s="17">
-        <v>44104</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4567</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>10010</v>
-      </c>
-      <c r="B16" s="17">
-        <v>44040</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5678</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>10016</v>
-      </c>
-      <c r="B17" s="17">
-        <v>44169</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7893</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>10003</v>
-      </c>
-      <c r="B18" s="17">
-        <v>44214</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3424</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>10015</v>
-      </c>
-      <c r="B19" s="17">
-        <v>44014</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5753</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>10007</v>
-      </c>
-      <c r="B20" s="17">
-        <v>43975</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5683</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\GitHub\LibraryDatabaseSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BDF44-3141-43A5-BC6D-8A6A9F45476C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDCFC1-E302-D643-877E-F813A8A28957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6165" yWindow="10500" windowWidth="14700" windowHeight="12810" tabRatio="946" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="946" firstSheet="1" activeTab="10" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="285">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -134,15 +134,9 @@
     <t>Overdue_ID</t>
   </si>
   <si>
-    <t>Days_Overdue</t>
-  </si>
-  <si>
     <t>Fine_Per_Day</t>
   </si>
   <si>
-    <t>Total_Fine</t>
-  </si>
-  <si>
     <t>Date_Loan_Start</t>
   </si>
   <si>
@@ -906,6 +900,9 @@
   </si>
   <si>
     <t>OD-019</t>
+  </si>
+  <si>
+    <t>Return_Date</t>
   </si>
 </sst>
 </file>
@@ -1397,17 +1394,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1421,144 +1418,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>116789</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>116790</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>126791</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>136792</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>146793</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>156794</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>166795</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>176796</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>186797</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>196798</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1570,18 +1567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1593,7 +1592,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10005</v>
       </c>
@@ -1607,7 +1606,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10009</v>
       </c>
@@ -1621,7 +1620,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10013</v>
       </c>
@@ -1635,7 +1634,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10008</v>
       </c>
@@ -1649,7 +1648,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -1663,7 +1662,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10011</v>
       </c>
@@ -1677,7 +1676,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10018</v>
       </c>
@@ -1691,7 +1690,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -1705,7 +1704,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10014</v>
       </c>
@@ -1719,7 +1718,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10004</v>
       </c>
@@ -1733,7 +1732,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10017</v>
       </c>
@@ -1747,7 +1746,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1761,7 +1760,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10012</v>
       </c>
@@ -1775,7 +1774,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10019</v>
       </c>
@@ -1789,7 +1788,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10010</v>
       </c>
@@ -1803,7 +1802,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -1817,7 +1816,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10003</v>
       </c>
@@ -1831,7 +1830,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10015</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10007</v>
       </c>
@@ -1869,284 +1868,297 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44266</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44005</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44108</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44315</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44243</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44040</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43978</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44006</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44297</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44110</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44048</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44199</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>276</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B18" s="5">
+        <v>44214</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>273</v>
       </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B19" s="5">
+        <v>44035</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>270</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="5">
+        <v>43980</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1">
         <v>5683</v>
       </c>
     </row>
@@ -2160,23 +2172,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="27"/>
+    <col min="4" max="4" width="13.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>26</v>
@@ -2185,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>5474</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>156794</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="32">
         <v>8521</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>136792</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3948</v>
       </c>
@@ -2227,7 +2241,7 @@
         <v>116789</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>2039</v>
       </c>
@@ -2240,8 +2254,9 @@
       <c r="D5" s="31">
         <v>196798</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>9454</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>166795</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>3456</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>186797</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>5675</v>
       </c>
@@ -2283,7 +2298,7 @@
         <v>116789</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>9385</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>196798</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>9630</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>156794</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>5970</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>176796</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>3948</v>
       </c>
@@ -2340,7 +2355,7 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>9087</v>
       </c>
@@ -2355,7 +2370,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>2345</v>
       </c>
@@ -2370,7 +2385,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>4567</v>
       </c>
@@ -2385,7 +2400,7 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>5678</v>
       </c>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>7893</v>
       </c>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>3424</v>
       </c>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>5753</v>
       </c>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>5683</v>
       </c>
@@ -2471,14 +2486,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="27"/>
+    <col min="2" max="2" width="15.6640625" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2486,7 +2501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>5474</v>
       </c>
@@ -2494,7 +2509,7 @@
         <v>967601</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>8521</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>967594</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3948</v>
       </c>
@@ -2510,7 +2525,7 @@
         <v>967598</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>2039</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>967604</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>9454</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>967609</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>3456</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>967595</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>5675</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>967611</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>9385</v>
       </c>
@@ -2550,7 +2565,7 @@
         <v>967600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>9630</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>967596</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>5970</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>967599</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>3948</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>967603</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>9087</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>967608</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>2345</v>
       </c>
@@ -2590,7 +2605,7 @@
         <v>967607</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>4567</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>967602</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>5678</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>967606</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>7893</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>967597</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>3424</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>967610</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>5753</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>967612</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>5683</v>
       </c>
@@ -2649,13 +2664,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5474</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>8521</v>
       </c>
@@ -2682,7 +2697,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3948</v>
       </c>
@@ -2690,7 +2705,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2039</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9454</v>
       </c>
@@ -2706,7 +2721,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3456</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5675</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9385</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9630</v>
       </c>
@@ -2741,7 +2756,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5970</v>
       </c>
@@ -2749,7 +2764,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3948</v>
       </c>
@@ -2757,7 +2772,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9087</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2345</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4567</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5678</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7893</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3424</v>
       </c>
@@ -2805,7 +2820,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5753</v>
       </c>
@@ -2813,7 +2828,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5683</v>
       </c>
@@ -2832,22 +2847,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="11"/>
+    <col min="2" max="2" width="15.5" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>5474</v>
       </c>
@@ -2855,7 +2870,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="36">
         <v>8521</v>
       </c>
@@ -2863,7 +2878,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3948</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2039</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>9454</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3456</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5675</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>9385</v>
       </c>
@@ -2911,7 +2926,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9630</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>5970</v>
       </c>
@@ -2927,7 +2942,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3948</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9087</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2345</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>4567</v>
       </c>
@@ -2959,7 +2974,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>5678</v>
       </c>
@@ -2967,7 +2982,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>7893</v>
       </c>
@@ -2975,7 +2990,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>3424</v>
       </c>
@@ -2983,7 +2998,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>5753</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>5683</v>
       </c>
@@ -3013,21 +3028,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="11"/>
-    <col min="6" max="6" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="11"/>
+    <col min="4" max="4" width="24.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="11"/>
+    <col min="6" max="6" width="26.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -3048,205 +3063,205 @@
         <v>15</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1232</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="21">
         <v>3879</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1233</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21">
         <v>1112</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>1234</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="16">
         <v>5474</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>1235</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="16">
         <v>8521</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1236</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="16">
         <v>3948</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>1237</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="16">
         <v>2039</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="I7" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>1238</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16">
         <v>9454</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="H8" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>1239</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16">
         <v>3456</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="23"/>
@@ -3254,18 +3269,18 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1240</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="16">
         <v>5675</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="23"/>
@@ -3273,45 +3288,45 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>1241</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="16">
         <v>9385</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>1242</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="16">
         <v>9630</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="23"/>
@@ -3319,72 +3334,72 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>1243</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="16">
         <v>5970</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>122</v>
-      </c>
       <c r="H13" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>1244</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="16">
         <v>3948</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>1245</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16">
         <v>9087</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="23"/>
@@ -3392,72 +3407,72 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>1246</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="16">
         <v>2345</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>1247</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="16">
         <v>4567</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>1248</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="16">
         <v>5678</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="23"/>
@@ -3465,18 +3480,18 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>1249</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="16">
         <v>7893</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="23"/>
@@ -3484,45 +3499,45 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>1250</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="16">
         <v>3424</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>137</v>
-      </c>
       <c r="H20" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>1251</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="16">
         <v>5753</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="23"/>
@@ -3530,126 +3545,126 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>1252</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="16">
         <v>8989</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="H22" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>1253</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="16">
         <v>3874</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>1254</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="16">
         <v>9881</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>1255</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="16">
         <v>6878</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>1256</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="16">
         <v>2344</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="22"/>
@@ -3657,31 +3672,31 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>1257</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="16">
         <v>5683</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3716,19 +3731,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="11"/>
+    <col min="4" max="4" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -3751,21 +3766,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17">
         <v>8.0399999999999991</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="17">
         <v>1947</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="17">
         <v>7564</v>
@@ -3774,21 +3789,21 @@
         <v>9908</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17">
         <v>16.97</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="17">
         <v>1988</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="17">
         <v>3847</v>
@@ -3797,21 +3812,21 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17">
         <v>9.99</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="17">
         <v>1605</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="17">
         <v>7854</v>
@@ -3820,21 +3835,21 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="17">
         <v>11.99</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" s="17">
         <v>1993</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="19">
         <v>6711</v>
@@ -3843,21 +3858,21 @@
         <v>9898</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="17">
         <v>11.17</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="17">
         <v>2009</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="19">
         <v>6711</v>
@@ -3866,21 +3881,21 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="17">
         <v>3.85</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="17">
         <v>1950</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="17">
         <v>6856</v>
@@ -3889,21 +3904,21 @@
         <v>9596</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="17">
         <v>11.55</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="17">
         <v>1932</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" s="17">
         <v>7001</v>
@@ -3912,21 +3927,21 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="20">
         <v>3</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17">
         <v>2010</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" s="17">
         <v>7145</v>
@@ -3935,21 +3950,21 @@
         <v>9433</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="17">
         <v>22.95</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17">
         <v>1862</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="19">
         <v>6711</v>
@@ -3958,21 +3973,21 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="17">
         <v>20.99</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="17">
         <v>1960</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="17">
         <v>7290</v>
@@ -3981,21 +3996,21 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="17">
         <v>20.11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" s="17">
         <v>1900</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="17">
         <v>7435</v>
@@ -4004,21 +4019,21 @@
         <v>9456</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="17">
         <v>8.4499999999999993</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="17">
         <v>1953</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="17">
         <v>7854</v>
@@ -4027,21 +4042,21 @@
         <v>9591</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="17">
         <v>12.29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="17">
         <v>2006</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="19">
         <v>7580</v>
@@ -4050,21 +4065,21 @@
         <v>9726</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" s="20">
         <v>8.1999999999999993</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="17">
         <v>2006</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="17">
         <v>7725</v>
@@ -4073,21 +4088,21 @@
         <v>9861</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="17">
         <v>3.98</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D16" s="17">
         <v>2002</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="17">
         <v>3847</v>
@@ -4096,21 +4111,21 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="17">
         <v>9.32</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D17" s="17">
         <v>2003</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" s="17">
         <v>7869</v>
@@ -4119,21 +4134,21 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="17">
         <v>22.28</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="17">
         <v>1992</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="17">
         <v>8014</v>
@@ -4154,16 +4169,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="11"/>
+    <col min="1" max="1" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -4177,186 +4192,186 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>7564</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>3847</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>7854</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>6711</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>6856</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>7001</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7145</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>7290</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>7435</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>7580</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>7725</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>7869</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>8014</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4370,14 +4385,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -4391,228 +4406,228 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>251</v>
       </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>252</v>
       </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>253</v>
       </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>254</v>
       </c>
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>255</v>
       </c>
-      <c r="B6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>256</v>
       </c>
-      <c r="B7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>257</v>
       </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>258</v>
       </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>259</v>
       </c>
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>238</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>260</v>
       </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>239</v>
       </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
         <v>240</v>
       </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>262</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>263</v>
       </c>
-      <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>264</v>
       </c>
-      <c r="B15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
         <v>246</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>247</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4626,20 +4641,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="11"/>
-    <col min="6" max="6" width="25.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="11"/>
+    <col min="2" max="2" width="24.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="11"/>
+    <col min="6" max="6" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
@@ -4647,178 +4662,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="B17" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="9"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G27" s="37"/>
     </row>
   </sheetData>
@@ -4832,14 +4847,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4850,191 +4865,191 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9908</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9879</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3746</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9898</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2466</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9596</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4536</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9433</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9123</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9321</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9456</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9591</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9726</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9861</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9996</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1026</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5048,13 +5063,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5062,156 +5077,156 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>967594</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>967595</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>967596</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>967597</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>967598</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>967599</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>967600</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>967601</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>967602</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>967603</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>967604</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>967605</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>967606</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>967607</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>967608</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>967609</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>967610</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>967611</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>967612</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5246,15 +5261,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5271,327 +5286,327 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>5166555901</v>
       </c>
       <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
       </c>
       <c r="D3">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>5168584056.6666698</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>5168631211.1666698</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>5168678365.6666698</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14">
         <v>5168725520.1666698</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15">
         <v>5168772674.6666698</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D16">
         <v>5168819829.1666698</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17">
         <v>5168866983.6666698</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18">
         <v>5168914138.1666698</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>5168961292.6666698</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>5169008447.1666698</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5621,15 +5636,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5857,6 +5863,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5867,16 +5882,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5896,6 +5901,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
   <ds:schemaRefs>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDCFC1-E302-D643-877E-F813A8A28957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E515FE-E922-5E4E-8B31-15D0A7251A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="946" firstSheet="1" activeTab="10" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" firstSheet="2" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Book_Loan" sheetId="9" r:id="rId12"/>
     <sheet name="Member_Book_Loan" sheetId="12" r:id="rId13"/>
     <sheet name="Book_Copy" sheetId="13" r:id="rId14"/>
-    <sheet name="Loan" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="266">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -140,9 +139,6 @@
     <t>Date_Loan_Start</t>
   </si>
   <si>
-    <t>Date_Loan_Due </t>
-  </si>
-  <si>
     <t>Jasmine</t>
   </si>
   <si>
@@ -251,9 +247,6 @@
     <t>A Tale of Two Cities</t>
   </si>
   <si>
-    <t>Subgenre</t>
-  </si>
-  <si>
     <t>A Christmas Carol</t>
   </si>
   <si>
@@ -266,9 +259,6 @@
     <t>History</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/don-quixote/oclc/1020679308</t>
-  </si>
-  <si>
     <t>Sachin</t>
   </si>
   <si>
@@ -356,12 +346,6 @@
     <t>kelly.kapoor@gmail.com</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/christmas-carol/oclc/270129693</t>
-  </si>
-  <si>
-    <t>https://www.worldcat.org/title/tale-of-two-cities/oclc/22267016</t>
-  </si>
-  <si>
     <t>Crime and Punishment</t>
   </si>
   <si>
@@ -371,15 +355,9 @@
     <t>Mystery</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/crime-and-punishment/oclc/373996</t>
-  </si>
-  <si>
     <t>Brave New World</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/brave-new-world/oclc/74490211</t>
-  </si>
-  <si>
     <t>0060850523 9780060850524</t>
   </si>
   <si>
@@ -413,18 +391,12 @@
     <t>Children</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/heidi/oclc/774130890?referer=di&amp;ht=edition</t>
-  </si>
-  <si>
     <t>Science Fiction</t>
   </si>
   <si>
     <t>Les Misérables</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/miserables/oclc/3991366</t>
-  </si>
-  <si>
     <t>0679600124 9780679600121</t>
   </si>
   <si>
@@ -437,12 +409,6 @@
     <t>The Wizard of Oz</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/to-kill-a-mockingbird/oclc/276976</t>
-  </si>
-  <si>
-    <t>https://www.worldcat.org/title/wizard-of-oz/oclc/8280289</t>
-  </si>
-  <si>
     <t>0030616611 9780030616617</t>
   </si>
   <si>
@@ -458,18 +424,12 @@
     <t>Romance</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/great-gatsby/oclc/57215622</t>
-  </si>
-  <si>
     <t>Ulysses</t>
   </si>
   <si>
     <t>Literature</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/ulysses/oclc/25831869</t>
-  </si>
-  <si>
     <t>0679600116 9780679600114</t>
   </si>
   <si>
@@ -503,15 +463,9 @@
     <t>0553176986 9780553176988</t>
   </si>
   <si>
-    <t>https://www.abebooks.com/products/isbn/9780553176988</t>
-  </si>
-  <si>
     <t>Science</t>
   </si>
   <si>
-    <t>https://www.worldcat.org/title/grapes-of-wrath/oclc/62593827</t>
-  </si>
-  <si>
     <t>Anne Frank: The Diary of a Young Girl</t>
   </si>
   <si>
@@ -521,27 +475,18 @@
     <t>A0</t>
   </si>
   <si>
-    <t>https://www.abebooks.com/products/isbn/9780553296983</t>
-  </si>
-  <si>
     <t>The Year of Magical Thinking</t>
   </si>
   <si>
     <t>Memoir</t>
   </si>
   <si>
-    <t>https://www.abebooks.com/products/isbn/9780007216857</t>
-  </si>
-  <si>
     <t>0007216858 9780007216857</t>
   </si>
   <si>
     <t>Silent Spring</t>
   </si>
   <si>
-    <t>https://www.abebooks.com/products/isbn/9780618249060</t>
-  </si>
-  <si>
     <t>0618249060 9780618249060</t>
   </si>
   <si>
@@ -549,9 +494,6 @@
   </si>
   <si>
     <t>0743246985 9780743246989</t>
-  </si>
-  <si>
-    <t>https://www.abebooks.com/products/isbn/9780743246989</t>
   </si>
   <si>
     <t>Contact Publishing</t>
@@ -909,6 +851,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,18 +896,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -978,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,10 +944,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,23 +968,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,25 +979,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1392,6 +1330,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547928EC-AA24-44F1-9E08-D45C16D6B473}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1423,13 +1364,13 @@
         <v>116789</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,13 +1378,13 @@
         <v>116790</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,13 +1392,13 @@
         <v>126791</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,13 +1406,13 @@
         <v>136792</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,13 +1420,13 @@
         <v>146793</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,13 +1434,13 @@
         <v>156794</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,13 +1448,13 @@
         <v>166795</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,13 +1462,13 @@
         <v>176796</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,13 +1476,13 @@
         <v>186797</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,13 +1490,13 @@
         <v>196798</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1509,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1870,295 +1811,295 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>274</v>
+      <c r="A2" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="B2" s="5">
         <v>44266</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="29">
         <v>0.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="33">
         <v>5474</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>278</v>
+      <c r="A3" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="B3" s="5">
         <v>44005</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="29">
         <v>0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="33">
         <v>8521</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>271</v>
+      <c r="A4" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="B4" s="5">
         <v>44108</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="29">
         <v>0.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="33">
         <v>3948</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>275</v>
+      <c r="A5" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="B5" s="5">
         <v>44315</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>0.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="33">
         <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>277</v>
+      <c r="A6" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="B6" s="5">
         <v>44243</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="29">
         <v>0.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="33">
         <v>9454</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>282</v>
+      <c r="A7" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="B7" s="5">
         <v>44040</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="29">
         <v>0.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="33">
         <v>3456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>265</v>
+      <c r="A8" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="B8" s="5">
         <v>43978</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="29">
         <v>0.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="33">
         <v>5675</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>279</v>
+      <c r="A9" s="29" t="s">
+        <v>260</v>
       </c>
       <c r="B9" s="5">
         <v>43912</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="29">
         <v>0.5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="33">
         <v>9385</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>268</v>
+      <c r="A10" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="B10" s="5">
         <v>43940</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="29">
         <v>0.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="33">
         <v>9630</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>283</v>
+      <c r="A11" s="29" t="s">
+        <v>264</v>
       </c>
       <c r="B11" s="5">
         <v>44006</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="29">
         <v>0.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="33">
         <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>280</v>
+      <c r="A12" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="B12" s="5">
         <v>44197</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="29">
         <v>0.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="33">
         <v>3948</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>281</v>
+      <c r="A13" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="B13" s="5">
         <v>44014</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="29">
         <v>0.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="33">
         <v>9087</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>267</v>
+      <c r="A14" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="B14" s="5">
         <v>44297</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="29">
         <v>0.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="33">
         <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>272</v>
+      <c r="A15" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="B15" s="5">
         <v>44110</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="29">
         <v>0.5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="33">
         <v>4567</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>269</v>
+      <c r="A16" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="B16" s="5">
         <v>44048</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="29">
         <v>0.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="33">
         <v>5678</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>266</v>
+      <c r="A17" s="29" t="s">
+        <v>247</v>
       </c>
       <c r="B17" s="5">
         <v>44199</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="29">
         <v>0.5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="33">
         <v>7893</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>276</v>
+      <c r="A18" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="B18" s="5">
         <v>44214</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="29">
         <v>0.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="33">
         <v>3424</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>273</v>
+      <c r="A19" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="B19" s="5">
         <v>44035</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="29">
         <v>0.5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="33">
         <v>5753</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>270</v>
+      <c r="A20" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="B20" s="5">
         <v>43980</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="29">
         <v>0.5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="33">
         <v>5683</v>
       </c>
     </row>
@@ -2172,308 +2113,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="1" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="38">
         <v>5474</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="23">
         <v>44247</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="23">
         <v>44261</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="39">
         <v>156794</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="32">
+      <c r="A3" s="40">
         <v>8521</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="23">
         <v>43990</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="23">
         <v>44002</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="39">
         <v>136792</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="38">
         <v>3948</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="23">
         <v>44090</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="23">
         <v>44104</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="39">
         <v>116789</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="38">
         <v>2039</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="23">
         <v>44301</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="23">
         <v>44315</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="39">
         <v>196798</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="38">
         <v>9454</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="23">
         <v>44223</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="23">
         <v>44237</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="39">
         <v>166795</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="38">
         <v>3456</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="23">
         <v>44026</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="23">
         <v>44040</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="39">
         <v>186797</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="38">
         <v>5675</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="23">
         <v>43960</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="23">
         <v>43974</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="39">
         <v>116789</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="38">
         <v>9385</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="23">
         <v>43896</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="23">
         <v>43910</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="39">
         <v>196798</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="38">
         <v>9630</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="23">
         <v>43926</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="23">
         <v>43940</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="39">
         <v>156794</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="38">
         <v>5970</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="23">
         <v>43994</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="23">
         <v>44001</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="39">
         <v>176796</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="38">
         <v>3948</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="23">
         <v>44177</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="23">
         <v>44191</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="39">
         <v>156794</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="38">
         <v>9087</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="23">
         <v>44000</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="23">
         <v>44014</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="39">
         <v>146793</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="38">
         <v>2345</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="23">
         <v>44280</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="23">
         <v>44294</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="39">
         <v>166795</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="38">
         <v>4567</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="23">
         <v>44090</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="23">
         <v>44104</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="39">
         <v>136792</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="38">
         <v>5678</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="23">
         <v>44026</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="23">
         <v>44040</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="39">
         <v>176796</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="38">
         <v>7893</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="23">
         <v>44155</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="23">
         <v>44169</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="39">
         <v>166795</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="38">
         <v>3424</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="23">
         <v>44200</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="23">
         <v>44214</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="39">
         <v>146793</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="38">
         <v>5753</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="23">
         <v>44000</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="23">
         <v>44014</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="39">
         <v>196798</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="38">
         <v>5683</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="23">
         <v>43961</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="23">
         <v>43975</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="39">
         <v>136792</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2488,168 +2429,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="1" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="22">
         <v>5474</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="21">
         <v>967601</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="22">
         <v>8521</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="21">
         <v>967594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="22">
         <v>3948</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="21">
         <v>967598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="22">
         <v>2039</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="21">
         <v>967604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>9454</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="21">
         <v>967609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="22">
         <v>3456</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="21">
         <v>967595</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="22">
         <v>5675</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="21">
         <v>967611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="22">
         <v>9385</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="21">
         <v>967600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="22">
         <v>9630</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="21">
         <v>967596</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <v>5970</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="21">
         <v>967599</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="22">
         <v>3948</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="21">
         <v>967603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="22">
         <v>9087</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="21">
         <v>967608</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="22">
         <v>2345</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="21">
         <v>967607</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="22">
         <v>4567</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="21">
         <v>967602</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="22">
         <v>5678</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="21">
         <v>967606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="22">
         <v>7893</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="21">
         <v>967597</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="22">
         <v>3424</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="21">
         <v>967610</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="22">
         <v>5753</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="21">
         <v>967612</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="22">
         <v>5683</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="21">
         <v>967605</v>
       </c>
     </row>
@@ -2841,208 +2782,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661601E-573F-4931-A9F7-22CDAD4DADD0}">
-  <dimension ref="A1:B20"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>5474</v>
-      </c>
-      <c r="B2" s="35">
-        <v>44261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
-        <v>8521</v>
-      </c>
-      <c r="B3" s="35">
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3948</v>
-      </c>
-      <c r="B4" s="35">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>2039</v>
-      </c>
-      <c r="B5" s="35">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>9454</v>
-      </c>
-      <c r="B6" s="35">
-        <v>44237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>3456</v>
-      </c>
-      <c r="B7" s="35">
-        <v>44040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>5675</v>
-      </c>
-      <c r="B8" s="35">
-        <v>43974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>9385</v>
-      </c>
-      <c r="B9" s="35">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>9630</v>
-      </c>
-      <c r="B10" s="35">
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>5970</v>
-      </c>
-      <c r="B11" s="35">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>3948</v>
-      </c>
-      <c r="B12" s="35">
-        <v>44191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>9087</v>
-      </c>
-      <c r="B13" s="35">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>2345</v>
-      </c>
-      <c r="B14" s="35">
-        <v>44294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>4567</v>
-      </c>
-      <c r="B15" s="35">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>5678</v>
-      </c>
-      <c r="B16" s="35">
-        <v>44040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>7893</v>
-      </c>
-      <c r="B17" s="35">
-        <v>44169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>3424</v>
-      </c>
-      <c r="B18" s="35">
-        <v>44214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>5753</v>
-      </c>
-      <c r="B19" s="35">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>5683</v>
-      </c>
-      <c r="B20" s="35">
-        <v>43975</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="11"/>
-    <col min="6" max="6" width="26.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.6640625" style="27"/>
     <col min="10" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -3055,671 +2817,400 @@
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1232</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="19">
+        <v>3879</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1233</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1112</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5474</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>1235</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8521</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>1236</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3948</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>1237</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2039</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
-        <v>1232</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="21">
-        <v>3879</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>1233</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>1238</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="21">
-        <v>1112</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="23" t="s">
+      <c r="C8" s="14">
+        <v>9454</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>1239</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3456</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="14">
+        <v>5675</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>1241</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9385</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>1242</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="14">
+        <v>9630</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>1243</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="14">
+        <v>5970</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1244</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3948</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1245</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="14">
+        <v>9087</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>1246</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2345</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>1247</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4567</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>1248</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="14">
+        <v>5678</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>1249</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="14">
+        <v>7893</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>1250</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3424</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>1251</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5753</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>1252</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="14">
+        <v>8989</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>1253</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3874</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>1254</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="14">
+        <v>9881</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>1255</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6878</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>1234</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="16">
-        <v>5474</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>1235</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="16">
-        <v>8521</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>1236</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="16">
-        <v>3948</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>1237</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2039</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <v>1238</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="16">
-        <v>9454</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1239</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3456</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>1240</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5675</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>1241</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9385</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>1242</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="16">
-        <v>9630</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>1243</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="16">
-        <v>5970</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>1244</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3948</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
-        <v>1245</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="16">
-        <v>9087</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>1246</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="16">
-        <v>2345</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>1256</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2344</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>1257</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="14">
+        <v>5683</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>1247</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="16">
-        <v>4567</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>1248</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16">
-        <v>5678</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>1249</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="16">
-        <v>7893</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>1250</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="16">
-        <v>3424</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>1251</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="16">
-        <v>5753</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
-        <v>1252</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="16">
-        <v>8989</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>1253</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3874</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
-        <v>1254</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="16">
-        <v>9881</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
-        <v>1255</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="16">
-        <v>6878</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>1256</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2344</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>1257</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="16">
-        <v>5683</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>139</v>
-      </c>
+      <c r="E27" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{850B11A3-62A6-984F-BC7B-BE8BE16B25A1}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{FA505670-A0ED-C14C-8BCC-6E4FC307140F}"/>
-    <hyperlink ref="I6" r:id="rId3" xr:uid="{202B27CC-2516-DB43-9B96-E7B5A8D2BBF2}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{74E3E727-210B-4D46-9864-751DE94EB309}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{1EFFFCB4-6140-624B-B7F7-99CA39C1B7B7}"/>
-    <hyperlink ref="I13" r:id="rId6" xr:uid="{777D7478-444F-1E46-91F7-C953E309FE23}"/>
-    <hyperlink ref="I14" r:id="rId7" xr:uid="{C098ADFF-45AD-F341-BAD9-E87E1BAE666A}"/>
-    <hyperlink ref="I16" r:id="rId8" xr:uid="{5F330CEA-DB4A-684A-A592-14E2471BD816}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{21D0ED9D-94F6-2C40-B12A-81DD2201D677}"/>
-    <hyperlink ref="I20" r:id="rId10" xr:uid="{C9214E57-D2D5-2B44-BCC6-D5A4B4597A2B}"/>
-    <hyperlink ref="I27" r:id="rId11" xr:uid="{45F60E1F-A021-5A4D-8EA7-4A602D1C76FB}"/>
-    <hyperlink ref="I3" r:id="rId12" xr:uid="{4403F651-5D32-2141-BC81-DC7765CA72D6}"/>
-    <hyperlink ref="I22" r:id="rId13" xr:uid="{1593C447-75A3-6D45-B2C7-4B8E915178ED}"/>
-    <hyperlink ref="I2" r:id="rId14" xr:uid="{61BC878E-F3E3-4C4A-9BB2-B52D91FDBBAA}"/>
-    <hyperlink ref="I23" r:id="rId15" xr:uid="{27BE8DB1-B5CA-E448-950C-EEAF2A05058D}"/>
-    <hyperlink ref="I24" r:id="rId16" xr:uid="{A7540261-2EB8-5844-B7BF-92E1EB26DA9A}"/>
-    <hyperlink ref="I25" r:id="rId17" xr:uid="{2F948A7F-D1C4-BF45-8BD7-85B3C6A98F3E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -3744,416 +3235,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="15">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="C2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="15">
         <v>1947</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="15">
+        <v>7564</v>
+      </c>
+      <c r="G2" s="15">
+        <v>9908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="15">
+        <v>16.97</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1988</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3847</v>
+      </c>
+      <c r="G3" s="15">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="15">
+        <v>9.99</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="17">
-        <v>7564</v>
-      </c>
-      <c r="G2" s="17">
-        <v>9908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="17">
-        <v>16.97</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1988</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D4" s="15">
+        <v>1605</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15">
+        <v>7854</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="15">
+        <v>11.99</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1993</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="17">
+        <v>6711</v>
+      </c>
+      <c r="G5" s="15">
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15">
+        <v>11.17</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2009</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="17">
+        <v>6711</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3.85</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1950</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6856</v>
+      </c>
+      <c r="G7" s="15">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="15">
+        <v>11.55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1932</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="15">
+        <v>7001</v>
+      </c>
+      <c r="G8" s="15">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7145</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="15">
+        <v>22.95</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1862</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="17">
+        <v>6711</v>
+      </c>
+      <c r="G10" s="15">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="15">
+        <v>20.99</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1960</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7290</v>
+      </c>
+      <c r="G11" s="15">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="15">
+        <v>20.11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7435</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1953</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7854</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="15">
+        <v>12.29</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="17">
+        <v>7580</v>
+      </c>
+      <c r="G14" s="15">
+        <v>9726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2006</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7725</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3.98</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3847</v>
+      </c>
+      <c r="G16" s="15">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="17">
-        <v>3847</v>
-      </c>
-      <c r="G3" s="17">
-        <v>9879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="17">
-        <v>9.99</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1605</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="17">
-        <v>7854</v>
-      </c>
-      <c r="G4" s="17">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="17">
-        <v>11.99</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1993</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="19">
-        <v>6711</v>
-      </c>
-      <c r="G5" s="17">
-        <v>9898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="17">
-        <v>11.17</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="17">
-        <v>2009</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="19">
-        <v>6711</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="17">
-        <v>3.85</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1950</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="17">
-        <v>6856</v>
-      </c>
-      <c r="G7" s="17">
-        <v>9596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="17">
-        <v>11.55</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1932</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="17">
-        <v>7001</v>
-      </c>
-      <c r="G8" s="17">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="20">
-        <v>3</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2010</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="17">
-        <v>7145</v>
-      </c>
-      <c r="G9" s="17">
-        <v>9433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B17" s="15">
+        <v>9.32</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7869</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="15">
+        <v>22.28</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1992</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="17">
-        <v>22.95</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1862</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6711</v>
-      </c>
-      <c r="G10" s="17">
-        <v>9123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="17">
-        <v>20.99</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1960</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="17">
-        <v>7290</v>
-      </c>
-      <c r="G11" s="17">
-        <v>9321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="17">
-        <v>20.11</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1900</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="17">
-        <v>7435</v>
-      </c>
-      <c r="G12" s="17">
-        <v>9456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="17">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1953</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="17">
-        <v>7854</v>
-      </c>
-      <c r="G13" s="17">
-        <v>9591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="17">
-        <v>12.29</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2006</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="19">
-        <v>7580</v>
-      </c>
-      <c r="G14" s="17">
-        <v>9726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="20">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="17">
-        <v>2006</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="17">
-        <v>7725</v>
-      </c>
-      <c r="G15" s="17">
-        <v>9861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="17">
-        <v>3.98</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="17">
-        <v>2002</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="17">
-        <v>3847</v>
-      </c>
-      <c r="G16" s="17">
-        <v>9996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="17">
-        <v>9.32</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="17">
-        <v>2003</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="17">
-        <v>7869</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="17">
-        <v>22.28</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1992</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>8014</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>1026</v>
       </c>
     </row>
@@ -4179,199 +3670,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>7564</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>214</v>
+      <c r="B2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>3847</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>214</v>
+      <c r="B3" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>7854</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>214</v>
+      <c r="B4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>6711</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>214</v>
+      <c r="B5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>6856</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>248</v>
+      <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>7001</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>214</v>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>7145</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>214</v>
+      <c r="B8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>7290</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>248</v>
+      <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>7435</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>214</v>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>7580</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>214</v>
+      <c r="B11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>7725</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>248</v>
+      <c r="B12" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>7869</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>214</v>
+      <c r="B13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>8014</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>214</v>
+      <c r="B14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4408,226 +3899,226 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4655,186 +4146,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="37"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G20" s="37"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="37"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="37"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G23" s="37"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="37"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G25" s="38"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="38"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="37"/>
+      <c r="G27" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4843,6 +4334,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809AA38-0CC1-4FCA-A686-0D43D44BAAE8}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4870,10 +4364,10 @@
         <v>9908</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,10 +4375,10 @@
         <v>9879</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4892,10 +4386,10 @@
         <v>3746</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,10 +4397,10 @@
         <v>9898</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4408,10 @@
         <v>2466</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,10 +4419,10 @@
         <v>9596</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4936,10 +4430,10 @@
         <v>4536</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,10 +4441,10 @@
         <v>9433</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4452,10 @@
         <v>9123</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +4463,10 @@
         <v>9321</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,10 +4474,10 @@
         <v>9456</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4991,10 +4485,10 @@
         <v>9591</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5002,10 +4496,10 @@
         <v>9726</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,10 +4507,10 @@
         <v>9861</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,10 +4518,10 @@
         <v>9996</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5035,10 +4529,10 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,10 +4540,10 @@
         <v>1026</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5059,6 +4553,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5082,7 +4579,7 @@
         <v>967594</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5090,7 +4587,7 @@
         <v>967595</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5098,7 +4595,7 @@
         <v>967596</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5106,7 +4603,7 @@
         <v>967597</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5114,7 +4611,7 @@
         <v>967598</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5122,7 +4619,7 @@
         <v>967599</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5130,7 +4627,7 @@
         <v>967600</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5138,7 +4635,7 @@
         <v>967601</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5146,7 +4643,7 @@
         <v>967602</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5154,7 +4651,7 @@
         <v>967603</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5162,7 +4659,7 @@
         <v>967604</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5170,7 +4667,7 @@
         <v>967605</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5178,7 +4675,7 @@
         <v>967606</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5186,7 +4683,7 @@
         <v>967607</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5194,7 +4691,7 @@
         <v>967608</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5202,7 +4699,7 @@
         <v>967609</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5210,7 +4707,7 @@
         <v>967610</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5218,7 +4715,7 @@
         <v>967611</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5226,7 +4723,7 @@
         <v>967612</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5257,16 +4754,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5279,7 +4782,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
@@ -5288,325 +4791,325 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="30">
+        <v>5166555901</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2">
-        <v>5166555901</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="D3" s="30">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="D4" s="30">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5">
+        <v>81</v>
+      </c>
+      <c r="D5" s="30">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6">
+        <v>83</v>
+      </c>
+      <c r="D6" s="30">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="D7" s="30">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="D8" s="30">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9">
+        <v>94</v>
+      </c>
+      <c r="D9" s="30">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="D10" s="30">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11">
-        <v>5168584056.6666698</v>
+        <v>165</v>
+      </c>
+      <c r="D11" s="31">
+        <v>5168584056</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12">
-        <v>5168631211.1666698</v>
+        <v>167</v>
+      </c>
+      <c r="D12" s="31">
+        <v>5168631211</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>5168678365.6666698</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="31">
+        <v>5168678365</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14">
-        <v>5168725520.1666698</v>
+        <v>170</v>
+      </c>
+      <c r="D14" s="31">
+        <v>5168725520</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15">
-        <v>5168772674.6666698</v>
+        <v>172</v>
+      </c>
+      <c r="D15" s="31">
+        <v>5168772674</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16">
-        <v>5168819829.1666698</v>
+        <v>174</v>
+      </c>
+      <c r="D16" s="31">
+        <v>5168819829</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17">
-        <v>5168866983.6666698</v>
+        <v>176</v>
+      </c>
+      <c r="D17" s="31">
+        <v>5168866983</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18">
-        <v>5168914138.1666698</v>
+        <v>178</v>
+      </c>
+      <c r="D18" s="31">
+        <v>5168914138</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>5168961292.6666698</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="31">
+        <v>5168961292</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>5169008447.1666698</v>
+        <v>181</v>
+      </c>
+      <c r="D20" s="31">
+        <v>5169008447</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5864,21 +5367,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5902,6 +5405,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5909,12 +5420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E515FE-E922-5E4E-8B31-15D0A7251A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED17456-D61B-104C-B42E-F7B2D35DA30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" firstSheet="2" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -852,7 +852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -991,7 +991,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2784,9 +2784,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4553,9 +4550,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4754,12 +4748,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5367,21 +5358,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5405,14 +5396,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5420,4 +5403,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED17456-D61B-104C-B42E-F7B2D35DA30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58FFE5-4FB3-6A47-BCBE-B886C81AFE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="7" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -4552,7 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4748,9 +4748,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58FFE5-4FB3-6A47-BCBE-B886C81AFE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B012F14-2BC9-3746-915F-E6CA960A28BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="7" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
@@ -4550,9 +4550,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B012F14-2BC9-3746-915F-E6CA960A28BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E4EFD-1090-614E-A66E-639346AEE4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="7" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="3" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -3653,9 +3653,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A333A68B-0059-403C-82CD-FB85142D0B9E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4555,7 +4558,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E4EFD-1090-614E-A66E-639346AEE4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DECC91-41BA-104F-B426-96AC41113BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="3" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="5" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,6 +1015,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3658,7 +3659,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3872,28 +3873,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289AAB-8F71-4DD5-BC1B-09F706C8F8CB}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3901,13 +3907,13 @@
       <c r="A2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="41" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3915,13 +3921,13 @@
       <c r="A3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="41" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3929,13 +3935,13 @@
       <c r="A4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="41" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3943,13 +3949,13 @@
       <c r="A5" t="s">
         <v>233</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="41" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3957,13 +3963,13 @@
       <c r="A6" t="s">
         <v>234</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="41" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3971,13 +3977,13 @@
       <c r="A7" t="s">
         <v>235</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="41" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3985,13 +3991,13 @@
       <c r="A8" t="s">
         <v>236</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="41" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3999,13 +4005,13 @@
       <c r="A9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="41" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4013,13 +4019,13 @@
       <c r="A10" t="s">
         <v>238</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4027,13 +4033,13 @@
       <c r="A11" t="s">
         <v>239</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4041,13 +4047,13 @@
       <c r="A12" t="s">
         <v>240</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4055,13 +4061,13 @@
       <c r="A13" t="s">
         <v>241</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4069,13 +4075,13 @@
       <c r="A14" t="s">
         <v>242</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4083,13 +4089,13 @@
       <c r="A15" t="s">
         <v>243</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4097,13 +4103,13 @@
       <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="41" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4111,13 +4117,13 @@
       <c r="A17" t="s">
         <v>245</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="41" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4130,7 +4136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DECC91-41BA-104F-B426-96AC41113BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC39B8-69AA-3E47-B661-E4CD74CA0501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="5" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="640" yWindow="2360" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,21 +1001,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1812,20 +1816,18 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1839,7 +1841,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="5">
@@ -1853,7 +1855,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>259</v>
       </c>
       <c r="B3" s="5">
@@ -1867,7 +1869,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="5">
@@ -1881,7 +1883,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>256</v>
       </c>
       <c r="B5" s="5">
@@ -1895,7 +1897,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="35" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="5">
@@ -1909,7 +1911,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B7" s="5">
@@ -1923,7 +1925,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="35" t="s">
         <v>246</v>
       </c>
       <c r="B8" s="5">
@@ -1937,7 +1939,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B9" s="5">
@@ -1951,7 +1953,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="35" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="5">
@@ -1965,7 +1967,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B11" s="5">
@@ -1979,7 +1981,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="35" t="s">
         <v>261</v>
       </c>
       <c r="B12" s="5">
@@ -1993,7 +1995,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="35" t="s">
         <v>262</v>
       </c>
       <c r="B13" s="5">
@@ -2007,7 +2009,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="35" t="s">
         <v>248</v>
       </c>
       <c r="B14" s="5">
@@ -2021,7 +2023,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="35" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="5">
@@ -2035,7 +2037,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="35" t="s">
         <v>250</v>
       </c>
       <c r="B16" s="5">
@@ -2049,7 +2051,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="35" t="s">
         <v>247</v>
       </c>
       <c r="B17" s="5">
@@ -2063,7 +2065,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="35" t="s">
         <v>257</v>
       </c>
       <c r="B18" s="5">
@@ -2077,7 +2079,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="5">
@@ -2091,7 +2093,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="35" t="s">
         <v>251</v>
       </c>
       <c r="B20" s="5">
@@ -2112,23 +2114,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -2137,12 +2139,12 @@
       <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="39">
         <v>5474</v>
       </c>
       <c r="B2" s="23">
@@ -2151,11 +2153,11 @@
       <c r="C2" s="23">
         <v>44261</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="41">
         <v>156794</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="40">
         <v>8521</v>
       </c>
@@ -2165,12 +2167,12 @@
       <c r="C3" s="23">
         <v>44002</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="41">
         <v>136792</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
         <v>3948</v>
       </c>
       <c r="B4" s="23">
@@ -2179,12 +2181,12 @@
       <c r="C4" s="23">
         <v>44104</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="41">
         <v>116789</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
         <v>2039</v>
       </c>
       <c r="B5" s="23">
@@ -2193,13 +2195,12 @@
       <c r="C5" s="23">
         <v>44315</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="41">
         <v>196798</v>
       </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
         <v>9454</v>
       </c>
       <c r="B6" s="23">
@@ -2208,12 +2209,12 @@
       <c r="C6" s="23">
         <v>44237</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="41">
         <v>166795</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
         <v>3456</v>
       </c>
       <c r="B7" s="23">
@@ -2222,12 +2223,12 @@
       <c r="C7" s="23">
         <v>44040</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="41">
         <v>186797</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
         <v>5675</v>
       </c>
       <c r="B8" s="23">
@@ -2236,12 +2237,12 @@
       <c r="C8" s="23">
         <v>43974</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="41">
         <v>116789</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
         <v>9385</v>
       </c>
       <c r="B9" s="23">
@@ -2250,12 +2251,12 @@
       <c r="C9" s="23">
         <v>43910</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="41">
         <v>196798</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
         <v>9630</v>
       </c>
       <c r="B10" s="23">
@@ -2264,12 +2265,12 @@
       <c r="C10" s="23">
         <v>43940</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="41">
         <v>156794</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
         <v>5970</v>
       </c>
       <c r="B11" s="23">
@@ -2278,12 +2279,12 @@
       <c r="C11" s="23">
         <v>44001</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="41">
         <v>176796</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
         <v>3948</v>
       </c>
       <c r="B12" s="23">
@@ -2292,13 +2293,12 @@
       <c r="C12" s="23">
         <v>44191</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="41">
         <v>156794</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
         <v>9087</v>
       </c>
       <c r="B13" s="23">
@@ -2307,13 +2307,12 @@
       <c r="C13" s="23">
         <v>44014</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="41">
         <v>146793</v>
       </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
         <v>2345</v>
       </c>
       <c r="B14" s="23">
@@ -2322,13 +2321,12 @@
       <c r="C14" s="23">
         <v>44294</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="41">
         <v>166795</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
         <v>4567</v>
       </c>
       <c r="B15" s="23">
@@ -2337,13 +2335,12 @@
       <c r="C15" s="23">
         <v>44104</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="41">
         <v>136792</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
         <v>5678</v>
       </c>
       <c r="B16" s="23">
@@ -2352,13 +2349,12 @@
       <c r="C16" s="23">
         <v>44040</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="41">
         <v>176796</v>
       </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="39">
         <v>7893</v>
       </c>
       <c r="B17" s="23">
@@ -2367,13 +2363,12 @@
       <c r="C17" s="23">
         <v>44169</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="41">
         <v>166795</v>
       </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
         <v>3424</v>
       </c>
       <c r="B18" s="23">
@@ -2382,13 +2377,12 @@
       <c r="C18" s="23">
         <v>44214</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="41">
         <v>146793</v>
       </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="39">
         <v>5753</v>
       </c>
       <c r="B19" s="23">
@@ -2397,13 +2391,12 @@
       <c r="C19" s="23">
         <v>44014</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="41">
         <v>196798</v>
       </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
         <v>5683</v>
       </c>
       <c r="B20" s="23">
@@ -2412,10 +2405,9 @@
       <c r="C20" s="23">
         <v>43975</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="41">
         <v>136792</v>
       </c>
-      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3218,14 +3210,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -3242,7 +3236,7 @@
       <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -3265,7 +3259,7 @@
       <c r="C2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="37">
         <v>1947</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -3288,7 +3282,7 @@
       <c r="C3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="37">
         <v>1988</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -3311,7 +3305,7 @@
       <c r="C4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="37">
         <v>1605</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -3334,7 +3328,7 @@
       <c r="C5" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="37">
         <v>1993</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -3357,7 +3351,7 @@
       <c r="C6" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="37">
         <v>2009</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -3380,7 +3374,7 @@
       <c r="C7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="37">
         <v>1950</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -3403,7 +3397,7 @@
       <c r="C8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="37">
         <v>1932</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -3426,7 +3420,7 @@
       <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="37">
         <v>2010</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -3449,7 +3443,7 @@
       <c r="C10" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="37">
         <v>1862</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3472,7 +3466,7 @@
       <c r="C11" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="37">
         <v>1960</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -3495,7 +3489,7 @@
       <c r="C12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="37">
         <v>1900</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -3518,7 +3512,7 @@
       <c r="C13" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="37">
         <v>1953</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -3541,7 +3535,7 @@
       <c r="C14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="37">
         <v>2006</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -3564,7 +3558,7 @@
       <c r="C15" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="37">
         <v>2006</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -3587,7 +3581,7 @@
       <c r="C16" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="37">
         <v>2002</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -3610,7 +3604,7 @@
       <c r="C17" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="37">
         <v>2003</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -3633,7 +3627,7 @@
       <c r="C18" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="37">
         <v>1992</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -3885,21 +3879,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3907,13 +3901,13 @@
       <c r="A2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="35" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3921,13 +3915,13 @@
       <c r="A3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3935,13 +3929,13 @@
       <c r="A4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="35" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3949,13 +3943,13 @@
       <c r="A5" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3963,13 +3957,13 @@
       <c r="A6" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3977,13 +3971,13 @@
       <c r="A7" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3991,13 +3985,13 @@
       <c r="A8" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4005,13 +3999,13 @@
       <c r="A9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="35" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4019,13 +4013,13 @@
       <c r="A10" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4033,13 +4027,13 @@
       <c r="A11" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4047,13 +4041,13 @@
       <c r="A12" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4061,13 +4055,13 @@
       <c r="A13" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4075,13 +4069,13 @@
       <c r="A14" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4089,13 +4083,13 @@
       <c r="A15" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4103,13 +4097,13 @@
       <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4117,13 +4111,13 @@
       <c r="A17" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="35" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4136,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC39B8-69AA-3E47-B661-E4CD74CA0501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F141-3605-F34B-914E-49F44DE60619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2360" windowWidth="25600" windowHeight="14300" tabRatio="946" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="946" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
-    <sheet name="Copy" sheetId="1" r:id="rId2"/>
-    <sheet name="Book" sheetId="2" r:id="rId3"/>
-    <sheet name="Genre_Type" sheetId="3" r:id="rId4"/>
-    <sheet name="Author" sheetId="4" r:id="rId5"/>
-    <sheet name="Book_Author" sheetId="15" r:id="rId6"/>
-    <sheet name="Publisher" sheetId="5" r:id="rId7"/>
-    <sheet name="Member" sheetId="6" r:id="rId8"/>
-    <sheet name="Member_Info" sheetId="11" r:id="rId9"/>
+    <sheet name="Book" sheetId="2" r:id="rId2"/>
+    <sheet name="Genre_Type" sheetId="3" r:id="rId3"/>
+    <sheet name="Author" sheetId="4" r:id="rId4"/>
+    <sheet name="Book_Author" sheetId="15" r:id="rId5"/>
+    <sheet name="Publisher" sheetId="5" r:id="rId6"/>
+    <sheet name="Member" sheetId="6" r:id="rId7"/>
+    <sheet name="Member_Info" sheetId="11" r:id="rId8"/>
+    <sheet name="Copy" sheetId="1" r:id="rId9"/>
     <sheet name="Book_Return" sheetId="7" r:id="rId10"/>
     <sheet name="Book_Overdue" sheetId="8" r:id="rId11"/>
     <sheet name="Book_Loan" sheetId="9" r:id="rId12"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="249">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -238,21 +238,12 @@
     <t>Don Quixote</t>
   </si>
   <si>
-    <t>9780486821955 0486821951</t>
-  </si>
-  <si>
-    <t>0679420738 9780679420736</t>
-  </si>
-  <si>
     <t>A Tale of Two Cities</t>
   </si>
   <si>
     <t>A Christmas Carol</t>
   </si>
   <si>
-    <t>9780061650994 0061650994</t>
-  </si>
-  <si>
     <t>Fiction</t>
   </si>
   <si>
@@ -349,18 +340,12 @@
     <t>Crime and Punishment</t>
   </si>
   <si>
-    <t>9780679601005 0679601007</t>
-  </si>
-  <si>
     <t>Mystery</t>
   </si>
   <si>
     <t>Brave New World</t>
   </si>
   <si>
-    <t>0060850523 9780060850524</t>
-  </si>
-  <si>
     <t>New York Dover Publications</t>
   </si>
   <si>
@@ -385,9 +370,6 @@
     <t>Heidi</t>
   </si>
   <si>
-    <t>9780735822276 0735822271</t>
-  </si>
-  <si>
     <t>Children</t>
   </si>
   <si>
@@ -397,30 +379,18 @@
     <t>Les Misérables</t>
   </si>
   <si>
-    <t>0679600124 9780679600121</t>
-  </si>
-  <si>
     <t>To Kill a Mockingbird</t>
   </si>
   <si>
-    <t>0397001517 9780397001514</t>
-  </si>
-  <si>
     <t>The Wizard of Oz</t>
   </si>
   <si>
-    <t>0030616611 9780030616617</t>
-  </si>
-  <si>
     <t>Fantasy</t>
   </si>
   <si>
     <t>The Great Gatsby</t>
   </si>
   <si>
-    <t>9780743273565 0743273567</t>
-  </si>
-  <si>
     <t>Romance</t>
   </si>
   <si>
@@ -430,9 +400,6 @@
     <t>Literature</t>
   </si>
   <si>
-    <t>0679600116 9780679600114</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
@@ -448,9 +415,6 @@
     <t>The Grapes of Wrath</t>
   </si>
   <si>
-    <t>0143039431 9780143039433</t>
-  </si>
-  <si>
     <t>Politics</t>
   </si>
   <si>
@@ -460,18 +424,12 @@
     <t>Non-Fiction</t>
   </si>
   <si>
-    <t>0553176986 9780553176988</t>
-  </si>
-  <si>
     <t>Science</t>
   </si>
   <si>
     <t>Anne Frank: The Diary of a Young Girl</t>
   </si>
   <si>
-    <t>0553296981 9780553296983</t>
-  </si>
-  <si>
     <t>A0</t>
   </si>
   <si>
@@ -481,19 +439,10 @@
     <t>Memoir</t>
   </si>
   <si>
-    <t>0007216858 9780007216857</t>
-  </si>
-  <si>
     <t>Silent Spring</t>
   </si>
   <si>
-    <t>0618249060 9780618249060</t>
-  </si>
-  <si>
     <t>Wild Swans: Three Daughters of China</t>
-  </si>
-  <si>
-    <t>0743246985 9780743246989</t>
   </si>
   <si>
     <t>Contact Publishing</t>
@@ -917,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,21 +897,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,9 +926,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1002,12 +939,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,12 +951,38 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1820,289 +1777,289 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>255</v>
+      <c r="A2" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="B2" s="5">
         <v>44266</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="25">
         <v>0.5</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="29">
         <v>5474</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>259</v>
+      <c r="A3" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="B3" s="5">
         <v>44005</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>0.5</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="29">
         <v>8521</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>252</v>
+      <c r="A4" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="B4" s="5">
         <v>44108</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>0.5</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="29">
         <v>3948</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>256</v>
+      <c r="A5" s="31" t="s">
+        <v>239</v>
       </c>
       <c r="B5" s="5">
         <v>44315</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>0.5</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="29">
         <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>258</v>
+      <c r="A6" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="B6" s="5">
         <v>44243</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="25">
         <v>0.5</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="29">
         <v>9454</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>263</v>
+      <c r="A7" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="B7" s="5">
         <v>44040</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>0.5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="29">
         <v>3456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>246</v>
+      <c r="A8" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="B8" s="5">
         <v>43978</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <v>0.5</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="29">
         <v>5675</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>260</v>
+      <c r="A9" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="B9" s="5">
         <v>43912</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <v>0.5</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="29">
         <v>9385</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>249</v>
+      <c r="A10" s="31" t="s">
+        <v>232</v>
       </c>
       <c r="B10" s="5">
         <v>43940</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="25">
         <v>0.5</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="29">
         <v>9630</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>264</v>
+      <c r="A11" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="B11" s="5">
         <v>44006</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>0.5</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="29">
         <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>261</v>
+      <c r="A12" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="B12" s="5">
         <v>44197</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>0.5</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="29">
         <v>3948</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>262</v>
+      <c r="A13" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="B13" s="5">
         <v>44014</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="25">
         <v>0.5</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="29">
         <v>9087</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>248</v>
+      <c r="A14" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="B14" s="5">
         <v>44297</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>0.5</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="29">
         <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>253</v>
+      <c r="A15" s="31" t="s">
+        <v>236</v>
       </c>
       <c r="B15" s="5">
         <v>44110</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="25">
         <v>0.5</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="29">
         <v>4567</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>250</v>
+      <c r="A16" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="B16" s="5">
         <v>44048</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="25">
         <v>0.5</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="29">
         <v>5678</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>247</v>
+      <c r="A17" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="B17" s="5">
         <v>44199</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <v>0.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="29">
         <v>7893</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>257</v>
+      <c r="A18" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="B18" s="5">
         <v>44214</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>0.5</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="29">
         <v>3424</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>254</v>
+      <c r="A19" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="B19" s="5">
         <v>44035</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>0.5</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="29">
         <v>5753</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>251</v>
+      <c r="A20" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="B20" s="5">
         <v>43980</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="25">
         <v>0.5</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="29">
         <v>5683</v>
       </c>
     </row>
@@ -2114,298 +2071,301 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="21"/>
+    <col min="1" max="1" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+      <c r="A2" s="33">
         <v>5474</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>44247</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>44261</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="35">
         <v>156794</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
+      <c r="A3" s="34">
         <v>8521</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>43990</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>44002</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="35">
         <v>136792</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="33">
         <v>3948</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>44090</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>44104</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="35">
         <v>116789</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="33">
         <v>2039</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>44301</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>44315</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="35">
         <v>196798</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="33">
         <v>9454</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>44223</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>44237</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="35">
         <v>166795</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+      <c r="A7" s="33">
         <v>3456</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>44026</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>44040</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="35">
         <v>186797</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+      <c r="A8" s="33">
         <v>5675</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>43960</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>43974</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="35">
         <v>116789</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="33">
         <v>9385</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="20">
         <v>43896</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>43910</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="35">
         <v>196798</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="33">
         <v>9630</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>43926</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>43940</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="35">
         <v>156794</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="33">
         <v>5970</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>43994</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>44001</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="35">
         <v>176796</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="39">
+      <c r="A12" s="33">
         <v>3948</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>44177</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>44191</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="35">
         <v>156794</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="A13" s="33">
         <v>9087</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="20">
         <v>44000</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>44014</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="35">
         <v>146793</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="39">
+      <c r="A14" s="33">
         <v>2345</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>44280</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>44294</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="35">
         <v>166795</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39">
+      <c r="A15" s="33">
         <v>4567</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>44090</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>44104</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="35">
         <v>136792</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="39">
+      <c r="A16" s="33">
         <v>5678</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>44026</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>44040</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="35">
         <v>176796</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+      <c r="A17" s="33">
         <v>7893</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>44155</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>44169</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="35">
         <v>166795</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="39">
+      <c r="A18" s="33">
         <v>3424</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>44200</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>44214</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="35">
         <v>146793</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="39">
+      <c r="A19" s="33">
         <v>5753</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>44000</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>44014</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="35">
         <v>196798</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="39">
+      <c r="A20" s="33">
         <v>5683</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>43961</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>43975</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="35">
         <v>136792</v>
       </c>
     </row>
@@ -2418,172 +2378,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="21"/>
+    <col min="1" max="1" width="8" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>5474</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>967601</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>8521</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>967594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>3948</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>967598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2039</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>967604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>9454</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>967609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>3456</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>967595</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>5675</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <v>967611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>9385</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>967600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="19">
         <v>9630</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>967596</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>5970</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>967599</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>3948</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>967603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>9087</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>967608</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>2345</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>967607</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>4567</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>967602</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>5678</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>967606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>7893</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>967597</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>3424</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>967610</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>5753</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>967612</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>5683</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>967605</v>
       </c>
     </row>
@@ -2596,7 +2556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2776,450 +2738,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="11"/>
-    <col min="6" max="9" width="8.6640625" style="27"/>
-    <col min="10" max="16384" width="8.6640625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>1232</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="19">
-        <v>3879</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1233</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1112</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>1234</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="14">
-        <v>5474</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>1235</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14">
-        <v>8521</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>1236</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3948</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>1237</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2039</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>1238</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="14">
-        <v>9454</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>1239</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="14">
-        <v>3456</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>1240</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5675</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>1241</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="14">
-        <v>9385</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>1242</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="14">
-        <v>9630</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>1243</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="14">
-        <v>5970</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>1244</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="14">
-        <v>3948</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>1245</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="14">
-        <v>9087</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>1246</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2345</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>1247</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="14">
-        <v>4567</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>1248</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="14">
-        <v>5678</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>1249</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="14">
-        <v>7893</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>1250</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3424</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>1251</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="14">
-        <v>5753</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>1252</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="14">
-        <v>8989</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>1253</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3874</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>1254</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="14">
-        <v>9881</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>1255</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="14">
-        <v>6878</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>1256</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2344</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>1257</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="14">
-        <v>5683</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -3227,416 +2761,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="39">
+        <v>5.5329698197805497E+21</v>
+      </c>
+      <c r="B2" s="17">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="41">
         <v>1947</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="17">
         <v>7564</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="17">
         <v>9908</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="39">
+        <v>5.5317698697805504E+21</v>
+      </c>
+      <c r="B3" s="17">
+        <v>16.97</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1988</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3847</v>
+      </c>
+      <c r="G3" s="17">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
+        <v>9.7804868219550394E+22</v>
+      </c>
+      <c r="B4" s="17">
+        <v>9.99</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="15">
-        <v>16.97</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="37">
-        <v>1988</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D4" s="41">
+        <v>1605</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="17">
+        <v>7854</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
+        <v>6.7942073897806704E+21</v>
+      </c>
+      <c r="B5" s="17">
+        <v>11.99</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1993</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="39">
+        <v>6711</v>
+      </c>
+      <c r="G5" s="17">
+        <v>9898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>9.7800616509939995E+22</v>
+      </c>
+      <c r="B6" s="17">
+        <v>11.17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2009</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="39">
+        <v>6711</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
+        <v>9.7806796010050598E+22</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3.85</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1950</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6856</v>
+      </c>
+      <c r="G7" s="17">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
+        <v>6.0850523978006004E+20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>11.55</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1932</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="17">
+        <v>7001</v>
+      </c>
+      <c r="G8" s="17">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>9.7807358222760703E+22</v>
+      </c>
+      <c r="B9" s="40">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2010</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="17">
+        <v>7145</v>
+      </c>
+      <c r="G9" s="17">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>6.7960012497806699E+21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>22.95</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1862</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="39">
+        <v>6711</v>
+      </c>
+      <c r="G10" s="17">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
+        <v>3.9700151797803899E+21</v>
+      </c>
+      <c r="B11" s="17">
+        <v>20.99</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1960</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="17">
+        <v>7290</v>
+      </c>
+      <c r="G11" s="17">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
+        <v>3.0616611978003002E+20</v>
+      </c>
+      <c r="B12" s="17">
+        <v>20.11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7435</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
+        <v>9.7807432735650692E+22</v>
+      </c>
+      <c r="B13" s="17">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1953</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="17">
+        <v>7854</v>
+      </c>
+      <c r="G13" s="17">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
+        <v>1.43039431978014E+21</v>
+      </c>
+      <c r="B14" s="17">
+        <v>12.29</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="41">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="39">
+        <v>7580</v>
+      </c>
+      <c r="G14" s="17">
+        <v>9726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
+        <v>7.2168589780007199E+19</v>
+      </c>
+      <c r="B15" s="40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="41">
+        <v>2006</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="17">
+        <v>7725</v>
+      </c>
+      <c r="G15" s="17">
+        <v>9861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
+        <v>6.18249060978061E+21</v>
+      </c>
+      <c r="B16" s="17">
+        <v>3.98</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="41">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="17">
         <v>3847</v>
       </c>
-      <c r="G3" s="15">
-        <v>9879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="15">
-        <v>9.99</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="37">
-        <v>1605</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7854</v>
-      </c>
-      <c r="G4" s="15">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="15">
-        <v>11.99</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="37">
-        <v>1993</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="17">
-        <v>6711</v>
-      </c>
-      <c r="G5" s="15">
-        <v>9898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="15">
-        <v>11.17</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="37">
-        <v>2009</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="17">
-        <v>6711</v>
-      </c>
-      <c r="G6" s="15">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="15">
-        <v>3.85</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="37">
-        <v>1950</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="15">
-        <v>6856</v>
-      </c>
-      <c r="G7" s="15">
-        <v>9596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="15">
-        <v>11.55</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="37">
-        <v>1932</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="15">
-        <v>7001</v>
-      </c>
-      <c r="G8" s="15">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="37">
-        <v>2010</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="15">
-        <v>7145</v>
-      </c>
-      <c r="G9" s="15">
-        <v>9433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="15">
-        <v>22.95</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="37">
-        <v>1862</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="G16" s="17">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="39">
+        <v>7.43246985978074E+21</v>
+      </c>
+      <c r="B17" s="17">
+        <v>9.32</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="41">
+        <v>2003</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="17">
+        <v>7869</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
+        <v>6.7960011697806702E+21</v>
+      </c>
+      <c r="B18" s="17">
+        <v>22.28</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1992</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="17">
-        <v>6711</v>
-      </c>
-      <c r="G10" s="15">
-        <v>9123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="15">
-        <v>20.99</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="37">
-        <v>1960</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="15">
-        <v>7290</v>
-      </c>
-      <c r="G11" s="15">
-        <v>9321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="15">
-        <v>20.11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="37">
-        <v>1900</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="15">
-        <v>7435</v>
-      </c>
-      <c r="G12" s="15">
-        <v>9456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="15">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="37">
-        <v>1953</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="15">
-        <v>7854</v>
-      </c>
-      <c r="G13" s="15">
-        <v>9591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="15">
-        <v>12.29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="37">
-        <v>2006</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="17">
-        <v>7580</v>
-      </c>
-      <c r="G14" s="15">
-        <v>9726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="37">
-        <v>2006</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="15">
-        <v>7725</v>
-      </c>
-      <c r="G15" s="15">
-        <v>9861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="15">
-        <v>3.98</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="37">
-        <v>2002</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3847</v>
-      </c>
-      <c r="G16" s="15">
-        <v>9996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="15">
-        <v>9.32</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="37">
-        <v>2003</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="15">
-        <v>7869</v>
-      </c>
-      <c r="G17" s="15">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="15">
-        <v>22.28</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="37">
-        <v>1992</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>8014</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>1026</v>
       </c>
     </row>
@@ -3646,7 +3180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A333A68B-0059-403C-82CD-FB85142D0B9E}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3679,185 +3213,185 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>7564</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>195</v>
+      <c r="B2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>3847</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>195</v>
+      <c r="B3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>7854</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>6711</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>6856</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>7001</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7145</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>7290</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>7435</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>7580</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>7725</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>6711</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>6856</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>7001</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>7145</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>7290</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>7435</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>7580</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>7725</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>229</v>
+      <c r="C12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>7869</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>195</v>
+      <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>8014</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>195</v>
+      <c r="B14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289AAB-8F71-4DD5-BC1B-09F706C8F8CB}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3873,252 +3407,413 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>110</v>
+        <v>214</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>203</v>
+        <v>215</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>110</v>
+        <v>216</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>110</v>
+        <v>218</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>150</v>
+        <v>220</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>106</v>
+        <v>221</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>106</v>
+        <v>222</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>106</v>
+        <v>223</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>106</v>
+      <c r="C13" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>106</v>
+        <v>225</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>106</v>
+        <v>226</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>110</v>
+        <v>227</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="39">
+        <v>5.5329698197805498E+20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="39">
+        <v>5.5317698697805504E+21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="39">
+        <v>9.7804868219550394E+22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="39">
+        <v>6.7942073897806704E+21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="39">
+        <v>9.7806796010050598E+22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="39">
+        <v>6.0850523978006004E+20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="39">
+        <v>9.7807358222760703E+22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="39">
+        <v>6.7960012497806699E+21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="39">
+        <v>3.9700151797803899E+21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="39">
+        <v>3.0616611978003002E+20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="39">
+        <v>9.7807432735650692E+22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.43039431978014E+21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="39">
+        <v>7.2168589780007199E+19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="39">
+        <v>6.18249060978061E+21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="B16" s="39">
+        <v>7.43246985978074E+21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>228</v>
+      </c>
+      <c r="B17" s="39">
+        <v>6.7960011697806702E+21</v>
       </c>
     </row>
   </sheetData>
@@ -4127,214 +3822,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" style="11"/>
-    <col min="6" max="6" width="25.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809AA38-0CC1-4FCA-A686-0D43D44BAAE8}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4366,10 +3853,10 @@
         <v>9908</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,10 +3864,10 @@
         <v>9879</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,10 +3875,10 @@
         <v>3746</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,10 +3886,10 @@
         <v>9898</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,10 +3897,10 @@
         <v>2466</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4421,10 +3908,10 @@
         <v>9596</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4432,10 +3919,10 @@
         <v>4536</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4443,10 +3930,10 @@
         <v>9433</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4454,10 +3941,10 @@
         <v>9123</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4465,10 +3952,10 @@
         <v>9321</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4476,10 +3963,10 @@
         <v>9456</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4487,10 +3974,10 @@
         <v>9591</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4498,10 +3985,10 @@
         <v>9726</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4509,10 +3996,10 @@
         <v>9861</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4520,10 +4007,10 @@
         <v>9996</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4531,10 +4018,10 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4542,10 +4029,10 @@
         <v>1026</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDEEC8-FEC4-4544-BB77-19669D3B9F4B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4583,7 +4070,7 @@
         <v>967594</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4078,7 @@
         <v>967595</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4086,7 @@
         <v>967596</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4094,7 @@
         <v>967597</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4102,7 @@
         <v>967598</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4110,7 @@
         <v>967599</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4118,7 @@
         <v>967600</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4126,7 @@
         <v>967601</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4134,7 @@
         <v>967602</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4142,7 @@
         <v>967603</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4150,7 @@
         <v>967604</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4158,7 @@
         <v>967605</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4166,7 @@
         <v>967606</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4174,7 @@
         <v>967607</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4182,7 @@
         <v>967608</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4190,7 @@
         <v>967609</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4198,7 @@
         <v>967610</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4206,7 @@
         <v>967611</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4214,7 @@
         <v>967612</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B07-E081-4814-A951-F7485B1E400A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4772,7 +4259,7 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4786,7 +4273,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
@@ -4795,325 +4282,325 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="26">
+        <v>5166555901</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="30">
-        <v>5166555901</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="30">
+        <v>72</v>
+      </c>
+      <c r="D3" s="26">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="30">
+        <v>74</v>
+      </c>
+      <c r="D4" s="26">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="30">
+        <v>78</v>
+      </c>
+      <c r="D5" s="26">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="30">
+        <v>80</v>
+      </c>
+      <c r="D6" s="26">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="30">
+        <v>85</v>
+      </c>
+      <c r="D7" s="26">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="30">
+        <v>88</v>
+      </c>
+      <c r="D8" s="26">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="30">
+        <v>91</v>
+      </c>
+      <c r="D9" s="26">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="30">
+        <v>94</v>
+      </c>
+      <c r="D10" s="26">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="31">
+        <v>148</v>
+      </c>
+      <c r="D11" s="27">
         <v>5168584056</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="31">
+        <v>150</v>
+      </c>
+      <c r="D12" s="27">
         <v>5168631211</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="27">
         <v>5168678365</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="31">
+        <v>153</v>
+      </c>
+      <c r="D14" s="27">
         <v>5168725520</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="31">
+        <v>155</v>
+      </c>
+      <c r="D15" s="27">
         <v>5168772674</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="31">
+        <v>157</v>
+      </c>
+      <c r="D16" s="27">
         <v>5168819829</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="31">
+        <v>159</v>
+      </c>
+      <c r="D17" s="27">
         <v>5168866983</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="31">
+        <v>161</v>
+      </c>
+      <c r="D18" s="27">
         <v>5168914138</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="27">
         <v>5168961292</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="31">
+        <v>164</v>
+      </c>
+      <c r="D20" s="27">
         <v>5169008447</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5142,7 +4629,456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="11"/>
+    <col min="6" max="8" width="8.6640625" style="24"/>
+    <col min="9" max="16384" width="8.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1232</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3879</v>
+      </c>
+      <c r="D2" s="38">
+        <v>5.5329698197805497E+21</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1233</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1112</v>
+      </c>
+      <c r="D3" s="38">
+        <v>5.5317698697805504E+21</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5474</v>
+      </c>
+      <c r="D4" s="38">
+        <v>9.7804868219550394E+22</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1235</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8521</v>
+      </c>
+      <c r="D5" s="38">
+        <v>9.7804868219550394E+22</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>1236</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3948</v>
+      </c>
+      <c r="D6" s="38">
+        <v>6.7942073897806704E+21</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>1237</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2039</v>
+      </c>
+      <c r="D7" s="38">
+        <v>9.7800616509939995E+22</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>1238</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="13">
+        <v>9454</v>
+      </c>
+      <c r="D8" s="38">
+        <v>9.7806796010050598E+22</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>1239</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3456</v>
+      </c>
+      <c r="D9" s="38">
+        <v>9.7806796010050598E+22</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5675</v>
+      </c>
+      <c r="D10" s="38">
+        <v>9.7806796010050598E+22</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>1241</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="13">
+        <v>9385</v>
+      </c>
+      <c r="D11" s="38">
+        <v>6.0850523978006004E+20</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>1242</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13">
+        <v>9630</v>
+      </c>
+      <c r="D12" s="38">
+        <v>6.0850523978006004E+20</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>1243</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5970</v>
+      </c>
+      <c r="D13" s="38">
+        <v>9.7807358222760703E+22</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>1244</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3948</v>
+      </c>
+      <c r="D14" s="38">
+        <v>6.7960012497806699E+21</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>1245</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9087</v>
+      </c>
+      <c r="D15" s="38">
+        <v>6.7960012497806699E+21</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>1246</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2345</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3.9700151797803899E+21</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>1247</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4567</v>
+      </c>
+      <c r="D17" s="38">
+        <v>3.0616611978003002E+20</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>1248</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5678</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3.0616611978003002E+20</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>1249</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7893</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3.0616611978003002E+20</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>1250</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3424</v>
+      </c>
+      <c r="D20" s="38">
+        <v>9.7807432735650692E+22</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>1251</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5753</v>
+      </c>
+      <c r="D21" s="38">
+        <v>9.7807432735650692E+22</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>1252</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="13">
+        <v>8989</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1.43039431978014E+21</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>1253</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3874</v>
+      </c>
+      <c r="D23" s="38">
+        <v>7.2168589780007199E+19</v>
+      </c>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>1254</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="13">
+        <v>9881</v>
+      </c>
+      <c r="D24" s="38">
+        <v>6.18249060978061E+21</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>1255</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="13">
+        <v>6878</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7.43246985978074E+21</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>1256</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2344</v>
+      </c>
+      <c r="D26" s="38">
+        <v>7.43246985978074E+21</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>1257</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5683</v>
+      </c>
+      <c r="D27" s="38">
+        <v>6.7960011697806702E+21</v>
+      </c>
+      <c r="E27" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5370,25 +5306,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5406,22 +5342,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD8F141-3605-F34B-914E-49F44DE60619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46D452-9981-0A47-BD36-BBBBC3F5FB84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="946" activeTab="11" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="946" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,12 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,9 +898,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -925,7 +916,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -952,9 +942,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -964,6 +954,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,289 +1770,289 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>238</v>
       </c>
       <c r="B2" s="5">
         <v>44266</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>0.5</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="25">
         <v>5474</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>242</v>
       </c>
       <c r="B3" s="5">
         <v>44005</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>0.5</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>8521</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>235</v>
       </c>
       <c r="B4" s="5">
         <v>44108</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>0.5</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="25">
         <v>3948</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>239</v>
       </c>
       <c r="B5" s="5">
         <v>44315</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="21">
         <v>0.5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>241</v>
       </c>
       <c r="B6" s="5">
         <v>44243</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>0.5</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="25">
         <v>9454</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>246</v>
       </c>
       <c r="B7" s="5">
         <v>44040</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>0.5</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>3456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>229</v>
       </c>
       <c r="B8" s="5">
         <v>43978</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>0.5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>5675</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>243</v>
       </c>
       <c r="B9" s="5">
         <v>43912</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>0.5</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="25">
         <v>9385</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
         <v>232</v>
       </c>
       <c r="B10" s="5">
         <v>43940</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>0.5</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>9630</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>247</v>
       </c>
       <c r="B11" s="5">
         <v>44006</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>0.5</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>244</v>
       </c>
       <c r="B12" s="5">
         <v>44197</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>0.5</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <v>3948</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>245</v>
       </c>
       <c r="B13" s="5">
         <v>44014</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>0.5</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>9087</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B14" s="5">
         <v>44297</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>0.5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>2345</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B15" s="5">
         <v>44110</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>0.5</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <v>4567</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>233</v>
       </c>
       <c r="B16" s="5">
         <v>44048</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>0.5</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <v>5678</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="27" t="s">
         <v>230</v>
       </c>
       <c r="B17" s="5">
         <v>44199</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>0.5</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="25">
         <v>7893</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="27" t="s">
         <v>240</v>
       </c>
       <c r="B18" s="5">
         <v>44214</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>0.5</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>3424</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="27" t="s">
         <v>237</v>
       </c>
       <c r="B19" s="5">
         <v>44035</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>0.5</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="25">
         <v>5753</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>234</v>
       </c>
       <c r="B20" s="5">
         <v>43980</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>0.5</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="25">
         <v>5683</v>
       </c>
     </row>
@@ -2076,296 +2069,296 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="18"/>
+    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="29">
         <v>5474</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>44247</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>44261</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="31">
         <v>156794</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>8521</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>43990</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>44002</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="31">
         <v>136792</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3948</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>44090</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>44104</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <v>116789</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="29">
         <v>2039</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>44301</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>44315</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="31">
         <v>196798</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>9454</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>44223</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>44237</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="31">
         <v>166795</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="29">
         <v>3456</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>44026</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>44040</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="31">
         <v>186797</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>5675</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>43960</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>43974</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <v>116789</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="29">
         <v>9385</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>43896</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>43910</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <v>196798</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9630</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>43926</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>43940</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="31">
         <v>156794</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
         <v>5970</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>43994</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>44001</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="31">
         <v>176796</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="29">
         <v>3948</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>44177</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>44191</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="31">
         <v>156794</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="29">
         <v>9087</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>44000</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>44014</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="31">
         <v>146793</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="29">
         <v>2345</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>44280</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>44294</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="31">
         <v>166795</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="A15" s="29">
         <v>4567</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>44090</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>44104</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="31">
         <v>136792</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="A16" s="29">
         <v>5678</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>44026</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>44040</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="31">
         <v>176796</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="A17" s="29">
         <v>7893</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>44155</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>44169</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <v>166795</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <v>3424</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>44200</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>44214</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="31">
         <v>146793</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="A19" s="29">
         <v>5753</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>44000</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>44014</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="31">
         <v>196798</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="A20" s="29">
         <v>5683</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>43961</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>43975</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="31">
         <v>136792</v>
       </c>
     </row>
@@ -2382,168 +2375,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="18"/>
+    <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="16">
         <v>5474</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="15">
         <v>967601</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>8521</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>967594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>3948</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>967598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>2039</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>967604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>9454</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>967609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>3456</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>967595</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>5675</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>967611</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>9385</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>967600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>9630</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>967596</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>5970</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>967599</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>3948</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>967603</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <v>9087</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>967608</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>2345</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>967607</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <v>4567</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>967602</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>5678</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>967606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>7893</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <v>967597</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>3424</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <v>967610</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>5753</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <v>967612</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>5683</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>967605</v>
       </c>
     </row>
@@ -2750,427 +2743,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+      <c r="A2" s="34">
         <v>5.5329698197805497E+21</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="37">
         <v>1947</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>7564</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>9908</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="34">
         <v>5.5317698697805504E+21</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>16.97</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <v>1988</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>3847</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>9879</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="34">
         <v>9.7804868219550394E+22</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>9.99</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>1605</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>7854</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="34">
         <v>6.7942073897806704E+21</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>11.99</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>1993</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="34">
         <v>6711</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>9898</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="34">
         <v>9.7800616509939995E+22</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>11.17</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>2009</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="34">
         <v>6711</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>2466</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+      <c r="A7" s="34">
         <v>9.7806796010050598E+22</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>3.85</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>1950</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>6856</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>9596</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+      <c r="A8" s="34">
         <v>6.0850523978006004E+20</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>11.55</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="37">
         <v>1932</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>7001</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>4536</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="34">
         <v>9.7807358222760703E+22</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="36">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="37">
         <v>2010</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>7145</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>9433</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="34">
         <v>6.7960012497806699E+21</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>22.95</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="37">
         <v>1862</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="34">
         <v>6711</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>9123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="34">
         <v>3.9700151797803899E+21</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>20.99</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <v>1960</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>7290</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>9321</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="39">
+      <c r="A12" s="34">
         <v>3.0616611978003002E+20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>20.11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="37">
         <v>1900</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>7435</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>9456</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="A13" s="34">
         <v>9.7807432735650692E+22</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="37">
         <v>1953</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>7854</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>9591</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="39">
+      <c r="A14" s="34">
         <v>1.43039431978014E+21</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>12.29</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="37">
         <v>2006</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="34">
         <v>7580</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>9726</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="39">
+      <c r="A15" s="34">
         <v>7.2168589780007199E+19</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="36">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="37">
         <v>2006</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>7725</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>9861</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="39">
+      <c r="A16" s="34">
         <v>6.18249060978061E+21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>3.98</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="37">
         <v>2002</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>3847</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>9996</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="39">
+      <c r="A17" s="34">
         <v>7.43246985978074E+21</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>9.32</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="37">
         <v>2003</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>7869</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <v>1013</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="39">
+      <c r="A18" s="34">
         <v>6.7960011697806702E+21</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>22.28</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="37">
         <v>1992</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>8014</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>1026</v>
       </c>
     </row>
@@ -3191,206 +3184,206 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>7564</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>3847</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>7854</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>6711</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>6856</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>7001</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7145</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>7290</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>7435</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>7580</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>7725</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>7869</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>8014</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3413,21 +3406,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3435,13 +3428,13 @@
       <c r="A2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3449,13 +3442,13 @@
       <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3463,13 +3456,13 @@
       <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3477,13 +3470,13 @@
       <c r="A5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3491,13 +3484,13 @@
       <c r="A6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3505,13 +3498,13 @@
       <c r="A7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3519,13 +3512,13 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3533,13 +3526,13 @@
       <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3547,13 +3540,13 @@
       <c r="A10" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3561,13 +3554,13 @@
       <c r="A11" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3575,13 +3568,13 @@
       <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3589,13 +3582,13 @@
       <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3603,13 +3596,13 @@
       <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3617,13 +3610,13 @@
       <c r="A15" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3631,13 +3624,13 @@
       <c r="A16" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3645,13 +3638,13 @@
       <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="27" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3673,146 +3666,146 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="34">
         <v>5.5329698197805498E+20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>5.5317698697805504E+21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <v>9.7804868219550394E+22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>6.7942073897806704E+21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>9.7806796010050598E+22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>6.0850523978006004E+20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>9.7807358222760703E+22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>6.7960012497806699E+21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>3.9700151797803899E+21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <v>3.0616611978003002E+20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <v>9.7807432735650692E+22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <v>1.43039431978014E+21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <v>7.2168589780007199E+19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>6.18249060978061E+21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>7.43246985978074E+21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>6.7960011697806702E+21</v>
       </c>
     </row>
@@ -4259,7 +4252,7 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="22" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4273,7 +4266,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
@@ -4290,7 +4283,7 @@
       <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>5166555901</v>
       </c>
       <c r="E2" t="s">
@@ -4307,7 +4300,7 @@
       <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
@@ -4324,7 +4317,7 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
@@ -4341,7 +4334,7 @@
       <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
@@ -4358,7 +4351,7 @@
       <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
@@ -4375,7 +4368,7 @@
       <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
@@ -4392,7 +4385,7 @@
       <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
@@ -4409,7 +4402,7 @@
       <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
@@ -4426,7 +4419,7 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
@@ -4443,7 +4436,7 @@
       <c r="C11" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>5168584056</v>
       </c>
       <c r="E11" t="s">
@@ -4460,7 +4453,7 @@
       <c r="C12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="23">
         <v>5168631211</v>
       </c>
       <c r="E12" t="s">
@@ -4477,7 +4470,7 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="23">
         <v>5168678365</v>
       </c>
       <c r="E13" t="s">
@@ -4494,7 +4487,7 @@
       <c r="C14" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="23">
         <v>5168725520</v>
       </c>
       <c r="E14" t="s">
@@ -4511,7 +4504,7 @@
       <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="23">
         <v>5168772674</v>
       </c>
       <c r="E15" t="s">
@@ -4528,7 +4521,7 @@
       <c r="C16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="23">
         <v>5168819829</v>
       </c>
       <c r="E16" t="s">
@@ -4545,7 +4538,7 @@
       <c r="C17" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="23">
         <v>5168866983</v>
       </c>
       <c r="E17" t="s">
@@ -4562,7 +4555,7 @@
       <c r="C18" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="23">
         <v>5168914138</v>
       </c>
       <c r="E18" t="s">
@@ -4579,7 +4572,7 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="23">
         <v>5168961292</v>
       </c>
       <c r="E19" t="s">
@@ -4596,7 +4589,7 @@
       <c r="C20" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="23">
         <v>5169008447</v>
       </c>
       <c r="E20" t="s">
@@ -4631,427 +4624,398 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="11"/>
-    <col min="6" max="8" width="8.6640625" style="24"/>
-    <col min="9" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1232</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="39">
         <v>3879</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="35">
         <v>5.5329698197805497E+21</v>
       </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>1233</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="39">
         <v>1112</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="35">
         <v>5.5317698697805504E+21</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>1234</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>5474</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>9.7804868219550394E+22</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>1235</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>8521</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>9.7804868219550394E+22</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>1236</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>3948</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="35">
         <v>6.7942073897806704E+21</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>1237</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>2039</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>9.7800616509939995E+22</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>1238</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>9454</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <v>9.7806796010050598E+22</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>1239</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>3456</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>9.7806796010050598E+22</v>
       </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>1240</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>5675</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <v>9.7806796010050598E+22</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>1241</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>9385</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="35">
         <v>6.0850523978006004E+20</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>1242</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>9630</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>6.0850523978006004E+20</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>1243</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <v>5970</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="35">
         <v>9.7807358222760703E+22</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>1244</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <v>3948</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="35">
         <v>6.7960012497806699E+21</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>1245</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>9087</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <v>6.7960012497806699E+21</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>1246</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>2345</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="35">
         <v>3.9700151797803899E+21</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>1247</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="14">
         <v>4567</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <v>3.0616611978003002E+20</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>1248</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="14">
         <v>5678</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>3.0616611978003002E+20</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>1249</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>7893</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>3.0616611978003002E+20</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>1250</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>3424</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="35">
         <v>9.7807432735650692E+22</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>1251</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>5753</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="35">
         <v>9.7807432735650692E+22</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>1252</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>8989</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="35">
         <v>1.43039431978014E+21</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>1253</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="14">
         <v>3874</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="35">
         <v>7.2168589780007199E+19</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>1254</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <v>9881</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="35">
         <v>6.18249060978061E+21</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
         <v>1255</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <v>6878</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="35">
         <v>7.43246985978074E+21</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>1256</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>2344</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="35">
         <v>7.43246985978074E+21</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>1257</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>5683</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="35">
         <v>6.7960011697806702E+21</v>
       </c>
-      <c r="E27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46D452-9981-0A47-BD36-BBBBC3F5FB84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418CF76-363E-1E43-A859-600D8A7CD219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="946" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="946" firstSheet="1" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,9 +944,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -964,18 +961,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1461,10 +1447,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2070,7 +2059,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2369,9 +2358,14 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2550,7 +2544,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2763,7 +2757,7 @@
       <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -2786,10 +2780,10 @@
       <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>1947</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>126</v>
       </c>
       <c r="F2" s="14">
@@ -2809,7 +2803,7 @@
       <c r="C3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>1988</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2832,7 +2826,7 @@
       <c r="C4" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>1605</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -2855,7 +2849,7 @@
       <c r="C5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>1993</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2878,7 +2872,7 @@
       <c r="C6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>2009</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -2901,7 +2895,7 @@
       <c r="C7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>1950</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -2924,7 +2918,7 @@
       <c r="C8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>1932</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -2941,13 +2935,13 @@
       <c r="A9" s="34">
         <v>9.7807358222760703E+22</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>2010</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2970,7 +2964,7 @@
       <c r="C10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>1862</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -2993,7 +2987,7 @@
       <c r="C11" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>1960</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -3016,7 +3010,7 @@
       <c r="C12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>1900</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -3039,7 +3033,7 @@
       <c r="C13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>1953</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -3062,7 +3056,7 @@
       <c r="C14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>2006</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -3079,13 +3073,13 @@
       <c r="A15" s="34">
         <v>7.2168589780007199E+19</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>8.1999999999999993</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>2006</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -3108,7 +3102,7 @@
       <c r="C16" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>2002</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -3131,10 +3125,10 @@
       <c r="C17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>2003</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="14">
@@ -3154,7 +3148,7 @@
       <c r="C18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>1992</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -4627,7 +4621,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4646,10 +4640,10 @@
       <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4660,10 +4654,10 @@
       <c r="B2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>3879</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>5.5329698197805497E+21</v>
       </c>
     </row>
@@ -4674,10 +4668,10 @@
       <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>1112</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>5.5317698697805504E+21</v>
       </c>
     </row>
@@ -4691,7 +4685,7 @@
       <c r="C4" s="14">
         <v>5474</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>9.7804868219550394E+22</v>
       </c>
     </row>
@@ -4705,7 +4699,7 @@
       <c r="C5" s="14">
         <v>8521</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>9.7804868219550394E+22</v>
       </c>
     </row>
@@ -4719,7 +4713,7 @@
       <c r="C6" s="14">
         <v>3948</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>6.7942073897806704E+21</v>
       </c>
     </row>
@@ -4733,7 +4727,7 @@
       <c r="C7" s="14">
         <v>2039</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>9.7800616509939995E+22</v>
       </c>
     </row>
@@ -4747,7 +4741,7 @@
       <c r="C8" s="14">
         <v>9454</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>9.7806796010050598E+22</v>
       </c>
     </row>
@@ -4761,7 +4755,7 @@
       <c r="C9" s="14">
         <v>3456</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>9.7806796010050598E+22</v>
       </c>
     </row>
@@ -4775,7 +4769,7 @@
       <c r="C10" s="14">
         <v>5675</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>9.7806796010050598E+22</v>
       </c>
     </row>
@@ -4789,7 +4783,7 @@
       <c r="C11" s="14">
         <v>9385</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>6.0850523978006004E+20</v>
       </c>
     </row>
@@ -4803,7 +4797,7 @@
       <c r="C12" s="14">
         <v>9630</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>6.0850523978006004E+20</v>
       </c>
     </row>
@@ -4817,7 +4811,7 @@
       <c r="C13" s="14">
         <v>5970</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>9.7807358222760703E+22</v>
       </c>
     </row>
@@ -4831,7 +4825,7 @@
       <c r="C14" s="14">
         <v>3948</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>6.7960012497806699E+21</v>
       </c>
     </row>
@@ -4845,7 +4839,7 @@
       <c r="C15" s="14">
         <v>9087</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>6.7960012497806699E+21</v>
       </c>
     </row>
@@ -4859,7 +4853,7 @@
       <c r="C16" s="14">
         <v>2345</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>3.9700151797803899E+21</v>
       </c>
     </row>
@@ -4873,7 +4867,7 @@
       <c r="C17" s="14">
         <v>4567</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>3.0616611978003002E+20</v>
       </c>
     </row>
@@ -4887,7 +4881,7 @@
       <c r="C18" s="14">
         <v>5678</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>3.0616611978003002E+20</v>
       </c>
     </row>
@@ -4901,7 +4895,7 @@
       <c r="C19" s="14">
         <v>7893</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>3.0616611978003002E+20</v>
       </c>
     </row>
@@ -4915,7 +4909,7 @@
       <c r="C20" s="14">
         <v>3424</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>9.7807432735650692E+22</v>
       </c>
     </row>
@@ -4929,7 +4923,7 @@
       <c r="C21" s="14">
         <v>5753</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>9.7807432735650692E+22</v>
       </c>
     </row>
@@ -4943,7 +4937,7 @@
       <c r="C22" s="14">
         <v>8989</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>1.43039431978014E+21</v>
       </c>
     </row>
@@ -4957,7 +4951,7 @@
       <c r="C23" s="14">
         <v>3874</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>7.2168589780007199E+19</v>
       </c>
     </row>
@@ -4971,7 +4965,7 @@
       <c r="C24" s="14">
         <v>9881</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>6.18249060978061E+21</v>
       </c>
     </row>
@@ -4985,7 +4979,7 @@
       <c r="C25" s="14">
         <v>6878</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>7.43246985978074E+21</v>
       </c>
     </row>
@@ -4999,7 +4993,7 @@
       <c r="C26" s="14">
         <v>2344</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>7.43246985978074E+21</v>
       </c>
     </row>
@@ -5013,7 +5007,7 @@
       <c r="C27" s="14">
         <v>5683</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <v>6.7960011697806702E+21</v>
       </c>
     </row>
@@ -5025,21 +5019,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5271,19 +5265,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivani/Documents/Github/Marketing Campaign/LibraryDatabaseSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418CF76-363E-1E43-A859-600D8A7CD219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C01EB-FE10-364F-A74B-E328751D8307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="946" firstSheet="1" activeTab="8" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="11040" yWindow="3340" windowWidth="28800" windowHeight="14300" tabRatio="946" firstSheet="1" activeTab="13" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <sheet name="Member" sheetId="6" r:id="rId7"/>
     <sheet name="Member_Info" sheetId="11" r:id="rId8"/>
     <sheet name="Copy" sheetId="1" r:id="rId9"/>
-    <sheet name="Book_Return" sheetId="7" r:id="rId10"/>
-    <sheet name="Book_Overdue" sheetId="8" r:id="rId11"/>
-    <sheet name="Book_Loan" sheetId="9" r:id="rId12"/>
-    <sheet name="Member_Book_Loan" sheetId="12" r:id="rId13"/>
-    <sheet name="Book_Copy" sheetId="13" r:id="rId14"/>
+    <sheet name="Book_Loan" sheetId="9" r:id="rId10"/>
+    <sheet name="Book_Copy" sheetId="13" r:id="rId11"/>
+    <sheet name="Book_Return" sheetId="23" r:id="rId12"/>
+    <sheet name="Book_Overdue" sheetId="8" r:id="rId13"/>
+    <sheet name="Member_Book_Loan" sheetId="12" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Book_Loan!$A$1:$D$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="273">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -794,6 +797,78 @@
   </si>
   <si>
     <t>Return_Date</t>
+  </si>
+  <si>
+    <t>OD-111</t>
+  </si>
+  <si>
+    <t>OD-112</t>
+  </si>
+  <si>
+    <t>OD-113</t>
+  </si>
+  <si>
+    <t>OD-114</t>
+  </si>
+  <si>
+    <t>OD-115</t>
+  </si>
+  <si>
+    <t>OD-116</t>
+  </si>
+  <si>
+    <t>OD-117</t>
+  </si>
+  <si>
+    <t>9780553296983</t>
+  </si>
+  <si>
+    <t>9780060188702</t>
+  </si>
+  <si>
+    <t>9780141439600</t>
+  </si>
+  <si>
+    <t>9780553052435</t>
+  </si>
+  <si>
+    <t>9781580495790</t>
+  </si>
+  <si>
+    <t>9781494405496</t>
+  </si>
+  <si>
+    <t>9780385425476</t>
+  </si>
+  <si>
+    <t>9780394538204</t>
+  </si>
+  <si>
+    <t>9780618249060</t>
+  </si>
+  <si>
+    <t>9781558586383</t>
+  </si>
+  <si>
+    <t>9780060850524</t>
+  </si>
+  <si>
+    <t>9780684801520</t>
+  </si>
+  <si>
+    <t>9780143145158</t>
+  </si>
+  <si>
+    <t>9781400043149</t>
+  </si>
+  <si>
+    <t>9781586633868</t>
+  </si>
+  <si>
+    <t>9780446310789</t>
+  </si>
+  <si>
+    <t>9781593080815</t>
   </si>
 </sst>
 </file>
@@ -803,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +919,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -866,22 +947,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -903,43 +975,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -956,12 +1000,217 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1280,163 +1529,163 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>116789</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>116790</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>126791</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>136792</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>146793</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>156794</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>166795</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>176796</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>186797</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>196798</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1446,1280 +1695,1629 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA3233-49B6-4100-84E1-C3E0EAFD85A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10005</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="D1" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>1112</v>
+      </c>
+      <c r="B2" s="29">
+        <v>43990</v>
+      </c>
+      <c r="C2" s="29">
+        <v>44002</v>
+      </c>
+      <c r="D2" s="32">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33">
+        <v>2039</v>
+      </c>
+      <c r="B3" s="29">
+        <v>44026</v>
+      </c>
+      <c r="C3" s="29">
+        <v>44040</v>
+      </c>
+      <c r="D3" s="32">
+        <v>186797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>2344</v>
+      </c>
+      <c r="B4" s="29">
+        <v>43961</v>
+      </c>
+      <c r="C4" s="29">
+        <v>43975</v>
+      </c>
+      <c r="D4" s="32">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
+        <v>2345</v>
+      </c>
+      <c r="B5" s="29">
+        <v>44026</v>
+      </c>
+      <c r="C5" s="29">
+        <v>44040</v>
+      </c>
+      <c r="D5" s="32">
+        <v>176796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>3424</v>
+      </c>
+      <c r="B6" s="29">
+        <v>43961</v>
+      </c>
+      <c r="C6" s="29">
+        <v>43975</v>
+      </c>
+      <c r="D6" s="32">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
+        <v>3456</v>
+      </c>
+      <c r="B7" s="29">
+        <v>43896</v>
+      </c>
+      <c r="C7" s="29">
+        <v>43910</v>
+      </c>
+      <c r="D7" s="32">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>3874</v>
+      </c>
+      <c r="B8" s="29">
+        <v>44155</v>
+      </c>
+      <c r="C8" s="29">
+        <v>44169</v>
+      </c>
+      <c r="D8" s="32">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <v>3879</v>
+      </c>
+      <c r="B9" s="29">
+        <v>44247</v>
+      </c>
+      <c r="C9" s="29">
         <v>44261</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D9" s="32">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
+        <v>3948</v>
+      </c>
+      <c r="B10" s="29">
+        <v>44223</v>
+      </c>
+      <c r="C10" s="29">
+        <v>44237</v>
+      </c>
+      <c r="D10" s="32">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>3949</v>
+      </c>
+      <c r="B11" s="29">
+        <v>44280</v>
+      </c>
+      <c r="C11" s="29">
+        <v>44294</v>
+      </c>
+      <c r="D11" s="32">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>4567</v>
+      </c>
+      <c r="B12" s="29">
+        <v>44155</v>
+      </c>
+      <c r="C12" s="29">
+        <v>44169</v>
+      </c>
+      <c r="D12" s="32">
+        <v>166795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
         <v>5474</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10009</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44002</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B13" s="29">
+        <v>44090</v>
+      </c>
+      <c r="C13" s="29">
+        <v>44104</v>
+      </c>
+      <c r="D13" s="32">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
+        <v>5675</v>
+      </c>
+      <c r="B14" s="29">
+        <v>43926</v>
+      </c>
+      <c r="C14" s="29">
+        <v>43940</v>
+      </c>
+      <c r="D14" s="32">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>5678</v>
+      </c>
+      <c r="B15" s="29">
+        <v>44200</v>
+      </c>
+      <c r="C15" s="29">
+        <v>44214</v>
+      </c>
+      <c r="D15" s="32">
+        <v>146793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>5683</v>
+      </c>
+      <c r="B16" s="29">
+        <v>44090</v>
+      </c>
+      <c r="C16" s="29">
+        <v>44104</v>
+      </c>
+      <c r="D16" s="32">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>5753</v>
+      </c>
+      <c r="B17" s="29">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="29">
+        <v>44104</v>
+      </c>
+      <c r="D17" s="32">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>5970</v>
+      </c>
+      <c r="B18" s="29">
+        <v>44000</v>
+      </c>
+      <c r="C18" s="29">
+        <v>44014</v>
+      </c>
+      <c r="D18" s="32">
+        <v>146793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
+        <v>6878</v>
+      </c>
+      <c r="B19" s="29">
+        <v>44000</v>
+      </c>
+      <c r="C19" s="29">
+        <v>44014</v>
+      </c>
+      <c r="D19" s="32">
+        <v>176796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>7893</v>
+      </c>
+      <c r="B20" s="29">
+        <v>44000</v>
+      </c>
+      <c r="C20" s="29">
+        <v>44014</v>
+      </c>
+      <c r="D20" s="32">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
         <v>8521</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10013</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="B21" s="29">
+        <v>44301</v>
+      </c>
+      <c r="C21" s="29">
+        <v>44315</v>
+      </c>
+      <c r="D21" s="32">
+        <v>196798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>8989</v>
+      </c>
+      <c r="B22" s="29">
+        <v>44026</v>
+      </c>
+      <c r="C22" s="29">
+        <v>44040</v>
+      </c>
+      <c r="D22" s="32">
+        <v>146793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>9087</v>
+      </c>
+      <c r="B23" s="29">
+        <v>44090</v>
+      </c>
+      <c r="C23" s="29">
         <v>44104</v>
       </c>
-      <c r="C4" s="1">
-        <v>3948</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10008</v>
-      </c>
-      <c r="B5" s="5">
-        <v>44315</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2039</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44237</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="D23" s="32">
+        <v>136792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>9385</v>
+      </c>
+      <c r="B24" s="29">
+        <v>43994</v>
+      </c>
+      <c r="C24" s="29">
+        <v>44001</v>
+      </c>
+      <c r="D24" s="32">
+        <v>176796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
         <v>9454</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10011</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44040</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3456</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10018</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="B25" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C25" s="29">
         <v>43974</v>
       </c>
-      <c r="C8" s="1">
-        <v>5675</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="5">
-        <v>43910</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9385</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10014</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="D25" s="32">
+        <v>116789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
         <v>9630</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10004</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5970</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10017</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="B26" s="29">
+        <v>44177</v>
+      </c>
+      <c r="C26" s="29">
         <v>44191</v>
       </c>
-      <c r="C12" s="1">
-        <v>3948</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10002</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44014</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9087</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10012</v>
-      </c>
-      <c r="B14" s="5">
-        <v>44294</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2345</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10019</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44104</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4567</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>10010</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44040</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5678</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10016</v>
-      </c>
-      <c r="B17" s="5">
-        <v>44169</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7893</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10003</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="D26" s="32">
+        <v>156794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33">
+        <v>9881</v>
+      </c>
+      <c r="B27" s="29">
+        <v>44200</v>
+      </c>
+      <c r="C27" s="29">
         <v>44214</v>
       </c>
-      <c r="C18" s="1">
-        <v>3424</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10015</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44014</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5753</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10007</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43975</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5683</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="D27" s="32">
+        <v>136792</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D27" xr:uid="{23EBA3C7-7A92-0849-BB0A-5F2EA8A6BD20}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
+      <sortCondition ref="A1:A27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D05F-D553-4F5B-894F-214976EA1880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="24" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="5">
-        <v>44266</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>3879</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>1112</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1233</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>5474</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="B4" s="11">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>8521</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="5">
-        <v>44108</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="B5" s="11">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>3948</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="5">
-        <v>44315</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="B6" s="11">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>2039</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44243</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="B7" s="11">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>9454</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44040</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="B8" s="11">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>3456</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="5">
-        <v>43978</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="B9" s="11">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>5675</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="B10" s="11">
+        <v>1240</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>9385</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="B11" s="11">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>9630</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44006</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="B12" s="11">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>5970</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="25">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44014</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="B13" s="11">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>3949</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>9087</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="5">
-        <v>44297</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="B15" s="11">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>2345</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44110</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B16" s="11">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>4567</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44048</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="B17" s="11">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>5678</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="5">
-        <v>44199</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="B18" s="11">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>7893</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="5">
-        <v>44214</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="B19" s="11">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>3424</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44035</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="B20" s="11">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>5753</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43980</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="B21" s="11">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>8989</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>3874</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>9881</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>6878</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2344</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>5683</v>
       </c>
+      <c r="B27" s="11">
+        <v>1257</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF4446-5B79-4F0E-B46E-222CEB0F6707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B497A8C-5285-884B-B57C-AA560A060468}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="15"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10005</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44261</v>
+      </c>
+      <c r="C2" s="25">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10009</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44002</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C4" s="35">
         <v>5474</v>
       </c>
-      <c r="B2" s="17">
-        <v>44247</v>
-      </c>
-      <c r="C2" s="17">
-        <v>44261</v>
-      </c>
-      <c r="D2" s="31">
-        <v>156794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10008</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44315</v>
+      </c>
+      <c r="C5" s="35">
         <v>8521</v>
       </c>
-      <c r="B3" s="17">
-        <v>43990</v>
-      </c>
-      <c r="C3" s="17">
-        <v>44002</v>
-      </c>
-      <c r="D3" s="31">
-        <v>136792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44237</v>
+      </c>
+      <c r="C6" s="35">
         <v>3948</v>
       </c>
-      <c r="B4" s="17">
-        <v>44090</v>
-      </c>
-      <c r="C4" s="17">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10011</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44040</v>
+      </c>
+      <c r="C7" s="35">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10018</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43974</v>
+      </c>
+      <c r="C8" s="35">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43910</v>
+      </c>
+      <c r="C9" s="35">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10014</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43940</v>
+      </c>
+      <c r="C10" s="35">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44001</v>
+      </c>
+      <c r="C11" s="35">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10017</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44191</v>
+      </c>
+      <c r="C12" s="35">
+        <v>9630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10002</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44014</v>
+      </c>
+      <c r="C13" s="35">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44294</v>
+      </c>
+      <c r="C14" s="35">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10019</v>
+      </c>
+      <c r="B15" s="3">
         <v>44104</v>
       </c>
-      <c r="D4" s="31">
-        <v>116789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>2039</v>
-      </c>
-      <c r="B5" s="17">
-        <v>44301</v>
-      </c>
-      <c r="C5" s="17">
-        <v>44315</v>
-      </c>
-      <c r="D5" s="31">
-        <v>196798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>9454</v>
-      </c>
-      <c r="B6" s="17">
-        <v>44223</v>
-      </c>
-      <c r="C6" s="17">
-        <v>44237</v>
-      </c>
-      <c r="D6" s="31">
-        <v>166795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>3456</v>
-      </c>
-      <c r="B7" s="17">
-        <v>44026</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="C15" s="35">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10010</v>
+      </c>
+      <c r="B16" s="3">
         <v>44040</v>
       </c>
-      <c r="D7" s="31">
-        <v>186797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
-        <v>5675</v>
-      </c>
-      <c r="B8" s="17">
-        <v>43960</v>
-      </c>
-      <c r="C8" s="17">
-        <v>43974</v>
-      </c>
-      <c r="D8" s="31">
-        <v>116789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <v>9385</v>
-      </c>
-      <c r="B9" s="17">
-        <v>43896</v>
-      </c>
-      <c r="C9" s="17">
-        <v>43910</v>
-      </c>
-      <c r="D9" s="31">
-        <v>196798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>9630</v>
-      </c>
-      <c r="B10" s="17">
-        <v>43926</v>
-      </c>
-      <c r="C10" s="17">
-        <v>43940</v>
-      </c>
-      <c r="D10" s="31">
-        <v>156794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
-        <v>5970</v>
-      </c>
-      <c r="B11" s="17">
-        <v>43994</v>
-      </c>
-      <c r="C11" s="17">
-        <v>44001</v>
-      </c>
-      <c r="D11" s="31">
-        <v>176796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
-        <v>3948</v>
-      </c>
-      <c r="B12" s="17">
-        <v>44177</v>
-      </c>
-      <c r="C12" s="17">
-        <v>44191</v>
-      </c>
-      <c r="D12" s="31">
-        <v>156794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
-        <v>9087</v>
-      </c>
-      <c r="B13" s="17">
-        <v>44000</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="C16" s="35">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44169</v>
+      </c>
+      <c r="C17" s="35">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10003</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44214</v>
+      </c>
+      <c r="C18" s="35">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="3">
         <v>44014</v>
       </c>
-      <c r="D13" s="31">
-        <v>146793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
-        <v>2345</v>
-      </c>
-      <c r="B14" s="17">
-        <v>44280</v>
-      </c>
-      <c r="C14" s="17">
-        <v>44294</v>
-      </c>
-      <c r="D14" s="31">
-        <v>166795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
-        <v>4567</v>
-      </c>
-      <c r="B15" s="17">
-        <v>44090</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="C19" s="35">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10007</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43975</v>
+      </c>
+      <c r="C20" s="35">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10000</v>
+      </c>
+      <c r="B21" s="13">
         <v>44104</v>
       </c>
-      <c r="D15" s="31">
-        <v>136792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
-        <v>5678</v>
-      </c>
-      <c r="B16" s="17">
-        <v>44026</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="C21" s="35">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10020</v>
+      </c>
+      <c r="B22" s="13">
         <v>44040</v>
       </c>
-      <c r="D16" s="31">
-        <v>176796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
-        <v>7893</v>
-      </c>
-      <c r="B17" s="17">
-        <v>44155</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="C22" s="35">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10021</v>
+      </c>
+      <c r="B23" s="13">
         <v>44169</v>
       </c>
-      <c r="D17" s="31">
-        <v>166795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>3424</v>
-      </c>
-      <c r="B18" s="17">
-        <v>44200</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="C23" s="35">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10022</v>
+      </c>
+      <c r="B24" s="13">
         <v>44214</v>
       </c>
-      <c r="D18" s="31">
-        <v>146793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>5753</v>
-      </c>
-      <c r="B19" s="17">
-        <v>44000</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="C24" s="35">
+        <v>9881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10023</v>
+      </c>
+      <c r="B25" s="13">
         <v>44014</v>
       </c>
-      <c r="D19" s="31">
-        <v>196798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="C25" s="35">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10024</v>
+      </c>
+      <c r="B26" s="13">
+        <v>43975</v>
+      </c>
+      <c r="C26" s="35">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10025</v>
+      </c>
+      <c r="B27" s="13">
+        <v>44104</v>
+      </c>
+      <c r="C27" s="35">
         <v>5683</v>
       </c>
-      <c r="B20" s="17">
-        <v>43961</v>
-      </c>
-      <c r="C20" s="17">
-        <v>43975</v>
-      </c>
-      <c r="D20" s="31">
-        <v>136792</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C3">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C27">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1501D05F-D553-4F5B-894F-214976EA1880}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="1" width="11.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44266</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="25">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44005</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44108</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="11">
         <v>5474</v>
       </c>
-      <c r="B2" s="15">
-        <v>967601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44315</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="11">
         <v>8521</v>
       </c>
-      <c r="B3" s="15">
-        <v>967594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44243</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="11">
         <v>3948</v>
       </c>
-      <c r="B4" s="15">
-        <v>967598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44040</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="11">
         <v>2039</v>
       </c>
-      <c r="B5" s="15">
-        <v>967604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43978</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="11">
         <v>9454</v>
       </c>
-      <c r="B6" s="15">
-        <v>967609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43912</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="11">
         <v>3456</v>
       </c>
-      <c r="B7" s="15">
-        <v>967595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43940</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="11">
         <v>5675</v>
       </c>
-      <c r="B8" s="15">
-        <v>967611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44006</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="11">
         <v>9385</v>
       </c>
-      <c r="B9" s="15">
-        <v>967600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="11">
         <v>9630</v>
       </c>
-      <c r="B10" s="15">
-        <v>967596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44014</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="11">
         <v>5970</v>
       </c>
-      <c r="B11" s="15">
-        <v>967599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>3948</v>
-      </c>
-      <c r="B12" s="15">
-        <v>967603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44297</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44110</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="11">
         <v>9087</v>
       </c>
-      <c r="B13" s="15">
-        <v>967608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44048</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="11">
         <v>2345</v>
       </c>
-      <c r="B14" s="15">
-        <v>967607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="11">
         <v>4567</v>
       </c>
-      <c r="B15" s="15">
-        <v>967602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44214</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="11">
         <v>5678</v>
       </c>
-      <c r="B16" s="15">
-        <v>967606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44035</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="11">
         <v>7893</v>
       </c>
-      <c r="B17" s="15">
-        <v>967597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43980</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="11">
         <v>3424</v>
       </c>
-      <c r="B18" s="15">
-        <v>967610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44048</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="11">
         <v>5753</v>
       </c>
-      <c r="B19" s="15">
-        <v>967612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44214</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44035</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="11">
+        <v>9881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43980</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="11">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44048</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44199</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="11">
         <v>5683</v>
       </c>
-      <c r="B20" s="15">
-        <v>967605</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5488104-338A-448F-94DB-0CD4AA2AC58C}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DA2F1-F972-4BFB-833F-EE7C7C045529}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>3879</v>
+      </c>
+      <c r="B2" s="12">
+        <v>967601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>1112</v>
+      </c>
+      <c r="B3" s="12">
+        <v>967594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>5474</v>
       </c>
-      <c r="B2" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="B4" s="12">
+        <v>967598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>8521</v>
       </c>
-      <c r="B3" s="6">
-        <v>1235</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B5" s="12">
+        <v>967604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>3948</v>
       </c>
-      <c r="B4" s="1">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B6" s="12">
+        <v>967609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>2039</v>
       </c>
-      <c r="B5" s="1">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B7" s="12">
+        <v>967595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>9454</v>
       </c>
-      <c r="B6" s="1">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B8" s="12">
+        <v>967611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>3456</v>
       </c>
-      <c r="B7" s="1">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B9" s="12">
+        <v>967600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>5675</v>
       </c>
-      <c r="B8" s="1">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B10" s="12">
+        <v>967596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>9385</v>
       </c>
-      <c r="B9" s="1">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="B11" s="12">
+        <v>967599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>9630</v>
       </c>
-      <c r="B10" s="6">
-        <v>1242</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B12" s="12">
+        <v>967603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>5970</v>
       </c>
-      <c r="B11" s="1">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>3948</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B13" s="12">
+        <v>967608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>3949</v>
+      </c>
+      <c r="B14" s="12">
+        <v>967607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>9087</v>
       </c>
-      <c r="B13" s="1">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B15" s="12">
+        <v>967602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>2345</v>
       </c>
-      <c r="B14" s="1">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B16" s="12">
+        <v>967606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>4567</v>
       </c>
-      <c r="B15" s="1">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B17" s="12">
+        <v>967597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>5678</v>
       </c>
-      <c r="B16" s="1">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B18" s="12">
+        <v>967610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>7893</v>
       </c>
-      <c r="B17" s="1">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B19" s="12">
+        <v>967612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>3424</v>
       </c>
-      <c r="B18" s="1">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="B20" s="12">
+        <v>967605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>5753</v>
       </c>
-      <c r="B19" s="1">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B21" s="12">
+        <v>967601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>8989</v>
+      </c>
+      <c r="B22" s="12">
+        <v>967594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>3874</v>
+      </c>
+      <c r="B23" s="12">
+        <v>967598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>9881</v>
+      </c>
+      <c r="B24" s="12">
+        <v>967604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>6878</v>
+      </c>
+      <c r="B25" s="12">
+        <v>967609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2344</v>
+      </c>
+      <c r="B26" s="12">
+        <v>967595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>5683</v>
       </c>
-      <c r="B20" s="1">
-        <v>1257</v>
+      <c r="B27" s="12">
+        <v>967611</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2727,437 +3325,435 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3D4419-521A-4711-AB1C-1A1053356953}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
-        <v>5.5329698197805497E+21</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="11">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="23">
         <v>1947</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>7564</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>9908</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
-        <v>5.5317698697805504E+21</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="11">
         <v>16.97</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="23">
         <v>1988</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>3847</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <v>9879</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
-        <v>9.7804868219550394E+22</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="11">
         <v>9.99</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="23">
         <v>1605</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>7854</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
-        <v>6.7942073897806704E+21</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="11">
         <v>11.99</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="23">
         <v>1993</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="21">
         <v>6711</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>9898</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
-        <v>9.7800616509939995E+22</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="11">
         <v>11.17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>2009</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="21">
         <v>6711</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>2466</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
-        <v>9.7806796010050598E+22</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="11">
         <v>3.85</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>1950</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>6856</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>9596</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
-        <v>6.0850523978006004E+20</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="11">
         <v>11.55</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="23">
         <v>1932</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>7001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>4536</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
-        <v>9.7807358222760703E+22</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="22">
         <v>3</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="23">
         <v>2010</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>7145</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>9433</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
-        <v>6.7960012497806699E+21</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="11">
         <v>22.95</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="23">
         <v>1862</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="21">
         <v>6711</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>9123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>3.9700151797803899E+21</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="11">
         <v>20.99</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="23">
         <v>1960</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>7290</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>9321</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
-        <v>3.0616611978003002E+20</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="11">
         <v>20.11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="23">
         <v>1900</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>7435</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>9456</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
-        <v>9.7807432735650692E+22</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="11">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="23">
         <v>1953</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>7854</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>9591</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
-        <v>1.43039431978014E+21</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="11">
         <v>12.29</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="23">
         <v>2006</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="21">
         <v>7580</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>9726</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
-        <v>7.2168589780007199E+19</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="A15" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="23">
         <v>2006</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>7725</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>9861</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
-        <v>6.18249060978061E+21</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="11">
         <v>3.98</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="23">
         <v>2002</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>3847</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>9996</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
-        <v>7.43246985978074E+21</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="11">
         <v>9.32</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="23">
         <v>2003</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>7869</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>1013</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
-        <v>6.7960011697806702E+21</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="A18" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="11">
         <v>22.28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="23">
         <v>1992</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>8014</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>1026</v>
       </c>
     </row>
@@ -3178,206 +3774,206 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>7564</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>3847</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>7854</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>6711</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>6856</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>7001</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>7145</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>7290</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>7435</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>7580</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>7725</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>7869</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>8014</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3394,27 +3990,27 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3422,13 +4018,13 @@
       <c r="A2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3436,13 +4032,13 @@
       <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3450,13 +4046,13 @@
       <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3464,13 +4060,13 @@
       <c r="A5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3478,13 +4074,13 @@
       <c r="A6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="18" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3492,13 +4088,13 @@
       <c r="A7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3506,13 +4102,13 @@
       <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3520,13 +4116,13 @@
       <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3534,13 +4130,13 @@
       <c r="A10" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3548,13 +4144,13 @@
       <c r="A11" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3562,13 +4158,13 @@
       <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3576,13 +4172,13 @@
       <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3590,13 +4186,13 @@
       <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3604,13 +4200,13 @@
       <c r="A15" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3618,13 +4214,13 @@
       <c r="A16" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3632,13 +4228,13 @@
       <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3650,157 +4246,163 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F85988-75AC-4E15-AF77-A4885D108A73}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="34">
-        <v>5.5329698197805498E+20</v>
+      <c r="B2" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="34">
-        <v>5.5317698697805504E+21</v>
+      <c r="B3" s="26" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="34">
-        <v>9.7804868219550394E+22</v>
+      <c r="B4" s="26" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="34">
-        <v>6.7942073897806704E+21</v>
+      <c r="B5" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="34">
-        <v>9.7806796010050598E+22</v>
+      <c r="B6" s="26" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="34">
-        <v>6.0850523978006004E+20</v>
+      <c r="B7" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="34">
-        <v>9.7807358222760703E+22</v>
+      <c r="B8" s="26" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="34">
-        <v>6.7960012497806699E+21</v>
+      <c r="B9" s="26" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="34">
-        <v>3.9700151797803899E+21</v>
+      <c r="B10" s="26" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="34">
-        <v>3.0616611978003002E+20</v>
+      <c r="B11" s="26" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="34">
-        <v>9.7807432735650692E+22</v>
+      <c r="B12" s="26" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="34">
-        <v>1.43039431978014E+21</v>
+      <c r="B13" s="26" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="34">
-        <v>7.2168589780007199E+19</v>
+      <c r="B14" s="26" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="34">
-        <v>6.18249060978061E+21</v>
+      <c r="B15" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="34">
-        <v>7.43246985978074E+21</v>
+      <c r="B16" s="26" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="34">
-        <v>6.7960011697806702E+21</v>
+      <c r="B17" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +4417,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4056,7 +4658,7 @@
       <c r="A2">
         <v>967594</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4064,7 +4666,7 @@
       <c r="A3">
         <v>967595</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4072,7 +4674,7 @@
       <c r="A4">
         <v>967596</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4080,7 +4682,7 @@
       <c r="A5">
         <v>967597</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4088,7 +4690,7 @@
       <c r="A6">
         <v>967598</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4096,7 +4698,7 @@
       <c r="A7">
         <v>967599</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4104,7 +4706,7 @@
       <c r="A8">
         <v>967600</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4112,7 +4714,7 @@
       <c r="A9">
         <v>967601</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4120,7 +4722,7 @@
       <c r="A10">
         <v>967602</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4128,7 +4730,7 @@
       <c r="A11">
         <v>967603</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4136,7 +4738,7 @@
       <c r="A12">
         <v>967604</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4144,7 +4746,7 @@
       <c r="A13">
         <v>967605</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4152,7 +4754,7 @@
       <c r="A14">
         <v>967606</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4160,7 +4762,7 @@
       <c r="A15">
         <v>967607</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4168,7 +4770,7 @@
       <c r="A16">
         <v>967608</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4176,7 +4778,7 @@
       <c r="A17">
         <v>967609</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4184,7 +4786,7 @@
       <c r="A18">
         <v>967610</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4192,7 +4794,7 @@
       <c r="A19">
         <v>967611</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4200,7 +4802,7 @@
       <c r="A20">
         <v>967612</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4246,7 +4848,7 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="16" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4260,7 +4862,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
@@ -4268,7 +4870,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
@@ -4277,7 +4879,7 @@
       <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="16">
         <v>5166555901</v>
       </c>
       <c r="E2" t="s">
@@ -4285,7 +4887,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
@@ -4294,7 +4896,7 @@
       <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="16">
         <v>5163213456</v>
       </c>
       <c r="E3" t="s">
@@ -4302,7 +4904,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B4" t="s">
@@ -4311,7 +4913,7 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="16">
         <v>5164376840</v>
       </c>
       <c r="E4" t="s">
@@ -4319,7 +4921,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B5" t="s">
@@ -4328,7 +4930,7 @@
       <c r="C5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>5160989098</v>
       </c>
       <c r="E5" t="s">
@@ -4336,7 +4938,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
@@ -4345,7 +4947,7 @@
       <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>5167483948</v>
       </c>
       <c r="E6" t="s">
@@ -4353,7 +4955,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
@@ -4362,7 +4964,7 @@
       <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>5164382938</v>
       </c>
       <c r="E7" t="s">
@@ -4370,7 +4972,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
@@ -4379,7 +4981,7 @@
       <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="16">
         <v>5168399595</v>
       </c>
       <c r="E8" t="s">
@@ -4387,7 +4989,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B9" t="s">
@@ -4396,7 +4998,7 @@
       <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <v>5168575744</v>
       </c>
       <c r="E9" t="s">
@@ -4404,7 +5006,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B10" t="s">
@@ -4413,7 +5015,7 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="16">
         <v>5168493904</v>
       </c>
       <c r="E10" t="s">
@@ -4421,7 +5023,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B11" t="s">
@@ -4430,7 +5032,7 @@
       <c r="C11" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>5168584056</v>
       </c>
       <c r="E11" t="s">
@@ -4438,7 +5040,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B12" t="s">
@@ -4447,7 +5049,7 @@
       <c r="C12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="17">
         <v>5168631211</v>
       </c>
       <c r="E12" t="s">
@@ -4455,7 +5057,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B13" t="s">
@@ -4464,7 +5066,7 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>5168678365</v>
       </c>
       <c r="E13" t="s">
@@ -4472,7 +5074,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B14" t="s">
@@ -4481,7 +5083,7 @@
       <c r="C14" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <v>5168725520</v>
       </c>
       <c r="E14" t="s">
@@ -4489,7 +5091,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B15" t="s">
@@ -4498,7 +5100,7 @@
       <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>5168772674</v>
       </c>
       <c r="E15" t="s">
@@ -4506,7 +5108,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B16" t="s">
@@ -4515,7 +5117,7 @@
       <c r="C16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="17">
         <v>5168819829</v>
       </c>
       <c r="E16" t="s">
@@ -4523,7 +5125,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B17" t="s">
@@ -4532,7 +5134,7 @@
       <c r="C17" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="17">
         <v>5168866983</v>
       </c>
       <c r="E17" t="s">
@@ -4540,7 +5142,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B18" t="s">
@@ -4549,7 +5151,7 @@
       <c r="C18" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="17">
         <v>5168914138</v>
       </c>
       <c r="E18" t="s">
@@ -4557,7 +5159,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B19" t="s">
@@ -4566,7 +5168,7 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="17">
         <v>5168961292</v>
       </c>
       <c r="E19" t="s">
@@ -4574,7 +5176,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B20" t="s">
@@ -4583,7 +5185,7 @@
       <c r="C20" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="17">
         <v>5169008447</v>
       </c>
       <c r="E20" t="s">
@@ -4618,425 +5220,413 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268B606-1708-4579-9CEE-5C0F78022AE0}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>1232</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="25">
         <v>3879</v>
       </c>
-      <c r="D2" s="34">
-        <v>5.5329698197805497E+21</v>
+      <c r="D2" s="36" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1233</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="25">
         <v>1112</v>
       </c>
-      <c r="D3" s="34">
-        <v>5.5317698697805504E+21</v>
+      <c r="D3" s="36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>1234</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>5474</v>
       </c>
-      <c r="D4" s="34">
-        <v>9.7804868219550394E+22</v>
+      <c r="D4" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>1235</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>8521</v>
       </c>
-      <c r="D5" s="34">
-        <v>9.7804868219550394E+22</v>
+      <c r="D5" s="36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>1236</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>3948</v>
       </c>
-      <c r="D6" s="34">
-        <v>6.7942073897806704E+21</v>
+      <c r="D6" s="36" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>1237</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>2039</v>
       </c>
-      <c r="D7" s="34">
-        <v>9.7800616509939995E+22</v>
+      <c r="D7" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>1238</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>9454</v>
       </c>
-      <c r="D8" s="34">
-        <v>9.7806796010050598E+22</v>
+      <c r="D8" s="36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <v>1239</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>3456</v>
       </c>
-      <c r="D9" s="34">
-        <v>9.7806796010050598E+22</v>
+      <c r="D9" s="36" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>1240</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>5675</v>
       </c>
-      <c r="D10" s="34">
-        <v>9.7806796010050598E+22</v>
+      <c r="D10" s="36" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <v>1241</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>9385</v>
       </c>
-      <c r="D11" s="34">
-        <v>6.0850523978006004E+20</v>
+      <c r="D11" s="36" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>1242</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>9630</v>
       </c>
-      <c r="D12" s="34">
-        <v>6.0850523978006004E+20</v>
+      <c r="D12" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>1243</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>5970</v>
       </c>
-      <c r="D13" s="34">
-        <v>9.7807358222760703E+22</v>
+      <c r="D13" s="36" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <v>1244</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="14">
-        <v>3948</v>
-      </c>
-      <c r="D14" s="34">
-        <v>6.7960012497806699E+21</v>
+      <c r="C14" s="11">
+        <v>3949</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <v>1245</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>9087</v>
       </c>
-      <c r="D15" s="34">
-        <v>6.7960012497806699E+21</v>
+      <c r="D15" s="36" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>1246</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>2345</v>
       </c>
-      <c r="D16" s="34">
-        <v>3.9700151797803899E+21</v>
+      <c r="D16" s="36" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>1247</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>4567</v>
       </c>
-      <c r="D17" s="34">
-        <v>3.0616611978003002E+20</v>
+      <c r="D17" s="36" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>1248</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>5678</v>
       </c>
-      <c r="D18" s="34">
-        <v>3.0616611978003002E+20</v>
+      <c r="D18" s="36" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>1249</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>7893</v>
       </c>
-      <c r="D19" s="34">
-        <v>3.0616611978003002E+20</v>
+      <c r="D19" s="36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <v>1250</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>3424</v>
       </c>
-      <c r="D20" s="34">
-        <v>9.7807432735650692E+22</v>
+      <c r="D20" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="11">
         <v>1251</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>5753</v>
       </c>
-      <c r="D21" s="34">
-        <v>9.7807432735650692E+22</v>
+      <c r="D21" s="36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <v>1252</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>8989</v>
       </c>
-      <c r="D22" s="34">
-        <v>1.43039431978014E+21</v>
+      <c r="D22" s="36" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <v>1253</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>3874</v>
       </c>
-      <c r="D23" s="34">
-        <v>7.2168589780007199E+19</v>
+      <c r="D23" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
         <v>1254</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>9881</v>
       </c>
-      <c r="D24" s="34">
-        <v>6.18249060978061E+21</v>
+      <c r="D24" s="36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>1255</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>6878</v>
       </c>
-      <c r="D25" s="34">
-        <v>7.43246985978074E+21</v>
+      <c r="D25" s="36" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <v>1256</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>2344</v>
       </c>
-      <c r="D26" s="34">
-        <v>7.43246985978074E+21</v>
+      <c r="D26" s="36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <v>1257</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>5683</v>
       </c>
-      <c r="D27" s="34">
-        <v>6.7960011697806702E+21</v>
+      <c r="D27" s="36" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5264,25 +5854,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5300,4 +5890,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Library Database - Data Entry.xlsx
+++ b/Library Database - Data Entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akhilapamukuntla/Documents/Github/LibraryDatabaseSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C01EB-FE10-364F-A74B-E328751D8307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46269A19-07EE-604F-ADDC-19BDD49A20BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="3340" windowWidth="28800" windowHeight="14300" tabRatio="946" firstSheet="1" activeTab="13" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="946" xr2:uid="{336C36ED-47A3-487C-862D-5D354DE9DA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Librarian" sheetId="10" r:id="rId1"/>
@@ -1029,107 +1029,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1525,7 +1425,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2343,7 +2243,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2661,10 +2561,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C3">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3070,11 +2970,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3087,7 +2987,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -3316,7 +3216,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5619,7 +5519,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5627,6 +5527,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="435119002e551b3dc00f784b9b43ef94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9bb1200df0e7a50d99d45e79b688233d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5854,15 +5763,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5873,6 +5773,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BB532B-364D-4933-886F-EE16892517C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5892,14 +5800,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED782DCC-B7BA-48FA-AE8B-464F60C7E712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF19E51A-CCC6-440D-9101-6A21CA1B36EE}">
   <ds:schemaRefs>
